--- a/Processed Datasets/Results.xlsx
+++ b/Processed Datasets/Results.xlsx
@@ -2,21 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyeske/Desktop/Fall 2025/Optimization Methods/Project/Processed Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B756B2E-AACB-324E-B067-232D1944D57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B535F3B7-E4D3-C64B-B640-19E297E9B179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="820" windowWidth="26260" windowHeight="17360" xr2:uid="{7CBF7E08-C6C4-A045-9677-85FC55C6D140}"/>
+    <workbookView xWindow="-35980" yWindow="0" windowWidth="30340" windowHeight="17360" activeTab="2" xr2:uid="{7CBF7E08-C6C4-A045-9677-85FC55C6D140}"/>
   </bookViews>
   <sheets>
-    <sheet name="Average Stage Length" sheetId="1" r:id="rId1"/>
-    <sheet name="Fuel Reduction" sheetId="2" r:id="rId2"/>
+    <sheet name="Problem Statistics" sheetId="5" r:id="rId1"/>
+    <sheet name="Average Stage Length" sheetId="1" r:id="rId2"/>
+    <sheet name="LF Sensitivity" sheetId="2" r:id="rId3"/>
+    <sheet name="Utilization Sensitivity" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
   <si>
     <t>A320NEO</t>
   </si>
@@ -126,7 +128,79 @@
     <t>Average Stage Length (km)</t>
   </si>
   <si>
-    <t>Load Factors</t>
+    <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Load Factors Sensitivity</t>
+  </si>
+  <si>
+    <t>Routes</t>
+  </si>
+  <si>
+    <t>Airports</t>
+  </si>
+  <si>
+    <t>Fleet Size</t>
+  </si>
+  <si>
+    <t>Aircraft Types</t>
+  </si>
+  <si>
+    <t>Number of Variables</t>
+  </si>
+  <si>
+    <t>Number of Constraints</t>
+  </si>
+  <si>
+    <t>Optimization Runtime (s)</t>
+  </si>
+  <si>
+    <t>Optimality Gap (%)</t>
+  </si>
+  <si>
+    <t>System-wide Fuel Consumption Reduction (%)</t>
+  </si>
+  <si>
+    <t>Baseline LF (%)</t>
+  </si>
+  <si>
+    <t>Aircraft Utilization Sensitivity</t>
+  </si>
+  <si>
+    <t>Passengers (million)</t>
+  </si>
+  <si>
+    <t>Baseline System-wide Fuel Consumption (million L)</t>
+  </si>
+  <si>
+    <t>Revenue Passenger Miles (billion RPKs)</t>
+  </si>
+  <si>
+    <t>Available Seat Miles (billion ASKs)</t>
+  </si>
+  <si>
+    <t>Optimal System-wide Fuel Consumption (million L)</t>
+  </si>
+  <si>
+    <t>2.03s</t>
+  </si>
+  <si>
+    <t>0.94s</t>
+  </si>
+  <si>
+    <t>1.71s</t>
+  </si>
+  <si>
+    <t>132.28s</t>
+  </si>
+  <si>
+    <t>LATAM Aircraft Utilization Sensitiviity</t>
+  </si>
+  <si>
+    <t>Aircraft Utilization Constraints - Slack (%)</t>
+  </si>
+  <si>
+    <t>Load Factor Constraint - Slack (%)</t>
   </si>
 </sst>
 </file>
@@ -134,9 +208,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,8 +244,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,14 +264,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -477,17 +551,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -496,24 +637,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,7 +655,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -534,32 +663,10 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,31 +676,144 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -930,11 +1150,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE2F936-89DF-F643-A9AE-EB85812C3DF7}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="35">
+        <v>904</v>
+      </c>
+      <c r="C2" s="36">
+        <v>546</v>
+      </c>
+      <c r="D2" s="36">
+        <v>430</v>
+      </c>
+      <c r="E2" s="37">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="35">
+        <v>109</v>
+      </c>
+      <c r="C3" s="36">
+        <v>66</v>
+      </c>
+      <c r="D3" s="36">
+        <v>57</v>
+      </c>
+      <c r="E3" s="37">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="35">
+        <v>131</v>
+      </c>
+      <c r="C4" s="36">
+        <v>114</v>
+      </c>
+      <c r="D4" s="36">
+        <v>162</v>
+      </c>
+      <c r="E4" s="37">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="39">
+        <v>5</v>
+      </c>
+      <c r="C5" s="40">
+        <v>3</v>
+      </c>
+      <c r="D5" s="40">
+        <v>6</v>
+      </c>
+      <c r="E5" s="41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="35">
+        <v>29.71</v>
+      </c>
+      <c r="C6" s="36">
+        <v>28.87</v>
+      </c>
+      <c r="D6" s="36">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E6" s="37">
+        <v>94.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="35">
+        <v>30.35</v>
+      </c>
+      <c r="C7" s="36">
+        <v>31.54</v>
+      </c>
+      <c r="D7" s="36">
+        <v>39.58</v>
+      </c>
+      <c r="E7" s="37">
+        <v>101.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="35">
+        <v>36.93</v>
+      </c>
+      <c r="C8" s="36">
+        <v>37.26</v>
+      </c>
+      <c r="D8" s="36">
+        <v>47.33</v>
+      </c>
+      <c r="E8" s="37">
+        <v>122.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="47">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C9" s="48">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D9" s="48">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E9" s="50">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="35">
+        <v>6328</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1638</v>
+      </c>
+      <c r="D10" s="36">
+        <v>2580</v>
+      </c>
+      <c r="E10" s="37">
+        <v>26847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="35">
+        <v>2466</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1346</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1470</v>
+      </c>
+      <c r="E11" s="37">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="47">
+        <v>1E-4</v>
+      </c>
+      <c r="C13" s="48">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D13" s="49">
+        <v>0</v>
+      </c>
+      <c r="E13" s="50">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="35">
+        <v>994</v>
+      </c>
+      <c r="C14" s="36">
+        <v>944</v>
+      </c>
+      <c r="D14" s="36">
+        <v>1357</v>
+      </c>
+      <c r="E14" s="37">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="35">
+        <v>979</v>
+      </c>
+      <c r="C15" s="36">
+        <v>932</v>
+      </c>
+      <c r="D15" s="36">
+        <v>1329</v>
+      </c>
+      <c r="E15" s="37">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="39">
+        <v>-1.48</v>
+      </c>
+      <c r="C16" s="40">
+        <v>-1.22</v>
+      </c>
+      <c r="D16" s="40">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="E16" s="41">
+        <v>-2.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0147B91D-2144-7B43-A9A4-560B5D2999B4}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,68 +1624,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="10"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1023,603 +1693,617 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
-        <v>1351.55642091255</v>
+      <c r="B3" s="11">
+        <v>1358</v>
       </c>
       <c r="C3" s="2">
         <v>1461</v>
       </c>
-      <c r="D3" s="43">
-        <f>(C3-B3)/C3</f>
-        <v>7.4910047287782319E-2</v>
+      <c r="D3" s="25">
+        <f>(C3-B3)/B3</f>
+        <v>7.5846833578792336E-2</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="15">
-        <v>1074.7026045039199</v>
-      </c>
-      <c r="I3" s="15">
-        <v>2272.52</v>
-      </c>
-      <c r="J3" s="43">
+      <c r="G3" s="5"/>
+      <c r="H3" s="11">
+        <v>1079</v>
+      </c>
+      <c r="I3" s="11">
+        <v>2256</v>
+      </c>
+      <c r="J3" s="25">
         <f>(I3-H3)/H3</f>
-        <v>1.1145570788385588</v>
-      </c>
-      <c r="K3" s="42">
-        <v>1287.1414187068401</v>
-      </c>
-      <c r="L3" s="15">
-        <v>1720.02</v>
-      </c>
-      <c r="M3" s="43">
+        <v>1.0908248378127896</v>
+      </c>
+      <c r="K3" s="24">
+        <v>1293</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1794</v>
+      </c>
+      <c r="M3" s="25">
         <f>(L3-K3)/K3</f>
-        <v>0.33631003944233456</v>
+        <v>0.38747099767981441</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
-        <v>2013.42874655225</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C4" s="11">
         <v>2534.44</v>
       </c>
-      <c r="D4" s="43">
-        <f>(C4-B4)/C4</f>
-        <v>0.20557253414866797</v>
+      <c r="D4" s="25">
+        <f t="shared" ref="D4:D21" si="0">(C4-B4)/B4</f>
+        <v>0.25157530864197536</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="15">
-        <v>1395.7922065077601</v>
-      </c>
-      <c r="I4" s="15">
-        <v>2429.46</v>
-      </c>
-      <c r="J4" s="43">
+      <c r="G4" s="5"/>
+      <c r="H4" s="11">
+        <v>1400</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2451</v>
+      </c>
+      <c r="J4" s="25">
         <f>(I4-H4)/H4</f>
-        <v>0.74055994056483021</v>
-      </c>
-      <c r="K4" s="42">
-        <v>1597.2531405151401</v>
-      </c>
-      <c r="L4" s="15">
-        <v>2386.7600000000002</v>
-      </c>
-      <c r="M4" s="43">
-        <f t="shared" ref="M4:M19" si="0">(L4-K4)/K4</f>
-        <v>0.49429037856218039</v>
+        <v>0.75071428571428567</v>
+      </c>
+      <c r="K4" s="24">
+        <v>1604</v>
+      </c>
+      <c r="L4" s="11">
+        <v>2463</v>
+      </c>
+      <c r="M4" s="25">
+        <f t="shared" ref="M4:M19" si="1">(L4-K4)/K4</f>
+        <v>0.53553615960099754</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="15">
-        <v>750.25715788510797</v>
-      </c>
-      <c r="I5" s="15">
-        <v>399.11099999999999</v>
-      </c>
-      <c r="J5" s="43">
+      <c r="G5" s="5"/>
+      <c r="H5" s="11">
+        <v>753</v>
+      </c>
+      <c r="I5" s="11">
+        <v>399</v>
+      </c>
+      <c r="J5" s="25">
         <f>(I5-H5)/H5</f>
-        <v>-0.46803439886525067</v>
-      </c>
-      <c r="K5" s="42">
-        <v>750.25715788510797</v>
-      </c>
-      <c r="L5" s="15">
-        <v>367.416</v>
-      </c>
-      <c r="M5" s="43">
-        <f t="shared" si="0"/>
-        <v>-0.51027991384220162</v>
+        <v>-0.47011952191235062</v>
+      </c>
+      <c r="K5" s="24">
+        <v>753</v>
+      </c>
+      <c r="L5" s="11">
+        <v>375</v>
+      </c>
+      <c r="M5" s="25">
+        <f t="shared" si="1"/>
+        <v>-0.50199203187250996</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="43"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="15">
-        <v>1006.78259329466</v>
-      </c>
-      <c r="I6" s="15">
-        <v>1159.23</v>
-      </c>
-      <c r="J6" s="43">
+      <c r="G6" s="5"/>
+      <c r="H6" s="11">
+        <v>1012</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1154</v>
+      </c>
+      <c r="J6" s="25">
         <f>(I6-H6)/H6</f>
-        <v>0.15142038382533143</v>
-      </c>
-      <c r="K6" s="42">
-        <v>1006.78259329466</v>
-      </c>
-      <c r="L6" s="15">
-        <v>614.33500000000004</v>
-      </c>
-      <c r="M6" s="43">
-        <f t="shared" si="0"/>
-        <v>-0.38980371324298457</v>
+        <v>0.14031620553359683</v>
+      </c>
+      <c r="K6" s="24">
+        <v>1012</v>
+      </c>
+      <c r="L6" s="11">
+        <v>601</v>
+      </c>
+      <c r="M6" s="25">
+        <f t="shared" si="1"/>
+        <v>-0.40612648221343872</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="15">
-        <v>1363.2526279231299</v>
-      </c>
-      <c r="I7" s="15">
-        <v>965.548</v>
-      </c>
-      <c r="J7" s="43">
+      <c r="G7" s="5"/>
+      <c r="H7" s="11">
+        <v>1369</v>
+      </c>
+      <c r="I7" s="11">
+        <v>973</v>
+      </c>
+      <c r="J7" s="25">
         <f>(I7-H7)/H7</f>
-        <v>-0.291732155711315</v>
-      </c>
-      <c r="K7" s="42">
-        <v>1363.2326179065101</v>
-      </c>
-      <c r="L7" s="15">
-        <v>1164.6600000000001</v>
-      </c>
-      <c r="M7" s="43">
-        <f t="shared" si="0"/>
-        <v>-0.14566304774269129</v>
+        <v>-0.28926223520818117</v>
+      </c>
+      <c r="K7" s="24">
+        <v>1369</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1130</v>
+      </c>
+      <c r="M7" s="25">
+        <f t="shared" si="1"/>
+        <v>-0.17457998539079619</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="43"/>
+      <c r="B8" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="42">
-        <v>1822.27272727273</v>
-      </c>
-      <c r="L8" s="15">
-        <v>1526.75</v>
-      </c>
-      <c r="M8" s="43">
-        <f t="shared" si="0"/>
-        <v>-0.16217261162384758</v>
+      <c r="G8" s="5"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="24">
+        <v>2005</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="25">
+        <f>(L8-K8)/K8</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="11">
+        <v>1970</v>
+      </c>
+      <c r="C9" s="11">
+        <v>496</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.74822335025380715</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="42">
-        <v>1865.09574468085</v>
-      </c>
-      <c r="L9" s="15">
-        <v>786.87699999999995</v>
-      </c>
-      <c r="M9" s="43">
-        <f t="shared" si="0"/>
-        <v>-0.57810369669003336</v>
+      <c r="G9" s="5"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="24">
+        <v>1970</v>
+      </c>
+      <c r="L9" s="11">
+        <v>931</v>
+      </c>
+      <c r="M9" s="25">
+        <f t="shared" si="1"/>
+        <v>-0.52741116751269035</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="42">
-        <v>547.23444773592905</v>
-      </c>
-      <c r="L10" s="15">
-        <v>397.94799999999998</v>
-      </c>
-      <c r="M10" s="43">
-        <f t="shared" si="0"/>
-        <v>-0.27280162707879835</v>
+      <c r="G10" s="5"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="24">
+        <v>548</v>
+      </c>
+      <c r="L10" s="11">
+        <v>397</v>
+      </c>
+      <c r="M10" s="25">
+        <f t="shared" si="1"/>
+        <v>-0.27554744525547448</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="42">
-        <v>444.790676691729</v>
-      </c>
-      <c r="L11" s="15">
-        <v>503.101</v>
-      </c>
-      <c r="M11" s="43">
-        <f t="shared" si="0"/>
-        <v>0.13109610062416871</v>
+      <c r="G11" s="5"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="24">
+        <v>447</v>
+      </c>
+      <c r="L11" s="11">
+        <v>415</v>
+      </c>
+      <c r="M11" s="25">
+        <f t="shared" si="1"/>
+        <v>-7.1588366890380312E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="15">
-        <v>386.584956885248</v>
-      </c>
-      <c r="C12" s="15">
-        <v>560.58199999999999</v>
-      </c>
-      <c r="D12" s="43">
-        <f>(C12-B12)/C12</f>
-        <v>0.31038642538424704</v>
+      <c r="B12" s="11">
+        <v>388</v>
+      </c>
+      <c r="C12" s="11">
+        <v>560</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="0"/>
+        <v>0.44329896907216493</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="42">
-        <v>389.398216590402</v>
-      </c>
-      <c r="L12" s="15">
-        <v>550.02200000000005</v>
-      </c>
-      <c r="M12" s="43">
-        <f t="shared" si="0"/>
-        <v>0.4124923447673467</v>
+      <c r="G12" s="5"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="24">
+        <v>391</v>
+      </c>
+      <c r="L12" s="11">
+        <v>554</v>
+      </c>
+      <c r="M12" s="25">
+        <f t="shared" si="1"/>
+        <v>0.41687979539641945</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42">
-        <v>1197.8321179350901</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="24">
+        <v>1199</v>
+      </c>
+      <c r="F13" s="11">
         <v>1890.4</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="25">
         <f>(F13-E13)/E13</f>
-        <v>0.57818443143669318</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="42">
-        <v>1197.8321179350901</v>
-      </c>
-      <c r="L13" s="15">
-        <v>2116.6999999999998</v>
-      </c>
-      <c r="M13" s="43">
-        <f t="shared" si="0"/>
-        <v>0.76710907004975026</v>
+        <v>0.5766472060050043</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="24">
+        <v>1199</v>
+      </c>
+      <c r="L13" s="11">
+        <v>2187</v>
+      </c>
+      <c r="M13" s="25">
+        <f t="shared" si="1"/>
+        <v>0.82402001668056712</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="42">
-        <v>1743.1891891891901</v>
-      </c>
-      <c r="L14" s="15">
-        <v>994.22199999999998</v>
-      </c>
-      <c r="M14" s="43">
-        <f t="shared" si="0"/>
-        <v>-0.42965341560978665</v>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="24">
+        <v>1587</v>
+      </c>
+      <c r="L14" s="11">
+        <v>825</v>
+      </c>
+      <c r="M14" s="25">
+        <f t="shared" si="1"/>
+        <v>-0.48015122873345933</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="42">
-        <v>1030.8258928571399</v>
-      </c>
-      <c r="L15" s="15">
-        <v>515.827</v>
-      </c>
-      <c r="M15" s="43">
-        <f t="shared" si="0"/>
-        <v>-0.49959832831683887</v>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="24">
+        <v>1051</v>
+      </c>
+      <c r="L15" s="11">
+        <v>540</v>
+      </c>
+      <c r="M15" s="25">
+        <f t="shared" si="1"/>
+        <v>-0.48620361560418651</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="42">
-        <v>702.70223745523197</v>
-      </c>
-      <c r="F16" s="15">
-        <v>454</v>
-      </c>
-      <c r="G16" s="43">
-        <f t="shared" ref="G16" si="1">(F16-E16)/E16</f>
-        <v>-0.35392264916628557</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="42">
-        <v>702.70223745523197</v>
-      </c>
-      <c r="L16" s="15">
-        <v>440.21100000000001</v>
-      </c>
-      <c r="M16" s="43">
-        <f t="shared" si="0"/>
-        <v>-0.37354546985052806</v>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="24">
+        <v>704</v>
+      </c>
+      <c r="F16" s="11">
+        <v>393</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" ref="G16" si="2">(F16-E16)/E16</f>
+        <v>-0.44176136363636365</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="24">
+        <v>704</v>
+      </c>
+      <c r="L16" s="11">
+        <v>390</v>
+      </c>
+      <c r="M16" s="25">
+        <f t="shared" si="1"/>
+        <v>-0.44602272727272729</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="42">
-        <v>1011.26246154486</v>
-      </c>
-      <c r="F17" s="15">
-        <v>783.48299999999995</v>
-      </c>
-      <c r="G17" s="43">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="24">
+        <v>1013</v>
+      </c>
+      <c r="F17" s="11">
+        <v>795</v>
+      </c>
+      <c r="G17" s="25">
         <f>(F17-E17)/E17</f>
-        <v>-0.22524267458409528</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="42">
-        <v>1011.21990534117</v>
-      </c>
-      <c r="L17" s="15">
-        <v>1100.83</v>
-      </c>
-      <c r="M17" s="43">
-        <f t="shared" si="0"/>
-        <v>8.8615833396393465E-2</v>
+        <v>-0.21520236920039487</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="24">
+        <v>1013</v>
+      </c>
+      <c r="L17" s="11">
+        <v>1114</v>
+      </c>
+      <c r="M17" s="25">
+        <f t="shared" si="1"/>
+        <v>9.970384995064166E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="15">
-        <v>2279.7292993630599</v>
-      </c>
-      <c r="I18" s="15">
-        <v>326.67</v>
-      </c>
-      <c r="J18" s="43">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="11">
+        <v>2347</v>
+      </c>
+      <c r="I18" s="11">
+        <v>326</v>
+      </c>
+      <c r="J18" s="25">
         <f>(I18-H18)/H18</f>
-        <v>-0.85670667123010202</v>
-      </c>
-      <c r="K18" s="42">
-        <v>2279.7292993630599</v>
-      </c>
-      <c r="L18" s="15">
-        <v>1354.61</v>
-      </c>
-      <c r="M18" s="43">
-        <f t="shared" si="0"/>
-        <v>-0.40580225890044563</v>
+        <v>-0.86109927567106948</v>
+      </c>
+      <c r="K18" s="24">
+        <v>2347</v>
+      </c>
+      <c r="L18" s="11">
+        <v>836</v>
+      </c>
+      <c r="M18" s="25">
+        <f t="shared" si="1"/>
+        <v>-0.64380059650617805</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="42">
-        <v>323.75478965040497</v>
-      </c>
-      <c r="L19" s="15">
-        <v>426.58800000000002</v>
-      </c>
-      <c r="M19" s="43">
-        <f t="shared" si="0"/>
-        <v>0.31762683869676744</v>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="24">
+        <v>328</v>
+      </c>
+      <c r="L19" s="11">
+        <v>431</v>
+      </c>
+      <c r="M19" s="25">
+        <f t="shared" si="1"/>
+        <v>0.31402439024390244</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="15">
-        <v>548.00658734686101</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11">
+        <v>550</v>
+      </c>
+      <c r="C20" s="11">
         <v>339.50099999999998</v>
       </c>
-      <c r="D20" s="43">
-        <f>(C20-B20)/C20</f>
-        <v>-0.61415308746325059</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="42">
-        <v>548.00658734686101</v>
-      </c>
-      <c r="L20" s="15">
-        <v>335.04700000000003</v>
-      </c>
-      <c r="M20" s="43">
+      <c r="D20" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.38272545454545459</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="24">
+        <v>550</v>
+      </c>
+      <c r="L20" s="11">
+        <v>316</v>
+      </c>
+      <c r="M20" s="25">
         <f>(L20-K20)/K20</f>
-        <v>-0.38860771433039021</v>
+        <v>-0.42545454545454547</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="15">
-        <v>772.39286684356796</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="B21" s="11">
+        <v>774</v>
+      </c>
+      <c r="C21" s="11">
         <v>752.84500000000003</v>
       </c>
-      <c r="D21" s="43">
-        <f>(C21-B21)/C21</f>
-        <v>-2.5965327316470097E-2</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="42">
-        <v>772.39286684356796</v>
-      </c>
-      <c r="L21" s="15">
-        <v>824.72799999999995</v>
-      </c>
-      <c r="M21" s="43">
+      <c r="D21" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.7332041343669216E-2</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="24">
+        <v>775</v>
+      </c>
+      <c r="L21" s="11">
+        <v>823</v>
+      </c>
+      <c r="M21" s="25">
         <f>(L21-K21)/K21</f>
-        <v>6.7757141997313891E-2</v>
+        <v>6.1935483870967742E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="41">
-        <v>855.26922849829305</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B22" s="23">
+        <v>859</v>
+      </c>
+      <c r="C22" s="12">
         <v>859.63199999999995</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="26">
         <f>(C22-B22)/C22</f>
-        <v>5.0751618154127607E-3</v>
-      </c>
-      <c r="E22" s="41">
-        <v>1042.67799298967</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1043.22</v>
-      </c>
-      <c r="G22" s="44">
+        <v>7.351983174194867E-4</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1044</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1044</v>
+      </c>
+      <c r="G22" s="26">
         <f>(F22-E22)/E22</f>
-        <v>5.198220485846803E-4</v>
-      </c>
-      <c r="H22" s="16">
-        <v>1066.5762350546099</v>
-      </c>
-      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1071</v>
+      </c>
+      <c r="I22" s="12">
         <v>1070.43</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="26">
         <f>(I22-H22)/H22</f>
-        <v>3.6132109630145869E-3</v>
-      </c>
-      <c r="K22" s="41">
-        <v>946.25088846703204</v>
-      </c>
-      <c r="L22" s="16">
-        <v>948.27499999999998</v>
-      </c>
-      <c r="M22" s="44">
+        <v>-5.3221288515400218E-4</v>
+      </c>
+      <c r="K22" s="23">
+        <v>950</v>
+      </c>
+      <c r="L22" s="12">
+        <v>949</v>
+      </c>
+      <c r="M22" s="26">
         <f>(L22-K22)/K22</f>
-        <v>2.1390854768412269E-3</v>
+        <v>-1.0526315789473684E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L23" s="17"/>
+      <c r="L23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1680,12 +2364,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F04214-778C-8B4E-A672-719A6F860331}">
-  <dimension ref="A1:M6"/>
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1695,199 +2380,2539 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="29"/>
+    </row>
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="20">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0.84</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="H2" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="I2" s="21">
+        <v>0.86</v>
+      </c>
+      <c r="J2" s="21">
+        <v>0.87</v>
+      </c>
+      <c r="K2" s="21">
+        <v>0.88</v>
+      </c>
+      <c r="L2" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="M2" s="22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="60">
+        <v>-1.53382</v>
+      </c>
+      <c r="C3" s="61">
+        <v>-2.29013</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61">
+        <v>-3.0202</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61">
+        <v>-3.6493099999999998</v>
+      </c>
+      <c r="I3" s="61">
+        <v>-3.6987000000000001</v>
+      </c>
+      <c r="J3" s="61">
+        <v>-4.1265299999999998</v>
+      </c>
+      <c r="K3" s="61">
+        <v>-4.1307299999999998</v>
+      </c>
+      <c r="L3" s="61">
+        <v>-4.1400699999999997</v>
+      </c>
+      <c r="M3" s="16">
+        <v>-4.1524900000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61">
+        <v>-1.23584</v>
+      </c>
+      <c r="H4" s="61">
+        <v>-1.23183</v>
+      </c>
+      <c r="I4" s="61">
+        <v>-1.25851</v>
+      </c>
+      <c r="J4" s="61">
+        <v>-1.2704800000000001</v>
+      </c>
+      <c r="K4" s="61">
+        <v>-1.2875399999999999</v>
+      </c>
+      <c r="L4" s="61">
+        <v>-1.2883500000000001</v>
+      </c>
+      <c r="M4" s="16">
+        <v>-1.2877400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61">
+        <v>-2.0666500000000001</v>
+      </c>
+      <c r="F5" s="61">
+        <v>-2.2239800000000001</v>
+      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61">
+        <v>-2.2905000000000002</v>
+      </c>
+      <c r="I5" s="61">
+        <v>-2.2911000000000001</v>
+      </c>
+      <c r="J5" s="61">
+        <v>-2.29196</v>
+      </c>
+      <c r="K5" s="61">
+        <v>-2.2890299999999999</v>
+      </c>
+      <c r="L5" s="61">
+        <v>-2.2912699999999999</v>
+      </c>
+      <c r="M5" s="16">
+        <v>-2.2912599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17">
+        <v>-2.8506100000000001</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17">
+        <v>-3.1436999999999999</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17">
+        <v>-4.33094</v>
+      </c>
+      <c r="I6" s="17">
+        <v>-5.1932499999999999</v>
+      </c>
+      <c r="J6" s="17">
+        <v>-5.7022199999999996</v>
+      </c>
+      <c r="K6" s="17">
+        <v>-6.0513000000000003</v>
+      </c>
+      <c r="L6" s="17">
+        <v>-6.0054800000000004</v>
+      </c>
+      <c r="M6" s="18">
+        <v>-6.1531000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="20">
         <v>0.82199999999999995</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C9" s="21">
         <v>0.83</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D9" s="21">
         <v>0.83399999999999996</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E9" s="21">
         <v>0.83599999999999997</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F9" s="21">
         <v>0.84</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G9" s="21">
         <v>0.84699999999999998</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H9" s="21">
         <v>0.85</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I9" s="21">
         <v>0.86</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J9" s="21">
         <v>0.87</v>
       </c>
-      <c r="K2" s="39">
+      <c r="K9" s="21">
         <v>0.88</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L9" s="21">
         <v>0.89</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M9" s="22">
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="19">
-        <v>-1.53643</v>
-      </c>
-      <c r="C3" s="20">
-        <v>-2.2917399999999999</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20">
-        <v>-3.0219999999999998</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20">
-        <v>-3.3005800000000001</v>
-      </c>
-      <c r="I3" s="20">
-        <v>-4.0572699999999999</v>
-      </c>
-      <c r="J3" s="20">
-        <v>-3.7080700000000002</v>
-      </c>
-      <c r="K3" s="20">
-        <v>-4.12784</v>
-      </c>
-      <c r="L3" s="20">
-        <v>-4.1056100000000004</v>
-      </c>
-      <c r="M3" s="28">
-        <v>-3.75088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="B10" s="60">
+        <v>3.11124</v>
+      </c>
+      <c r="C10" s="61">
+        <v>6.5781000000000001</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61">
+        <v>8.8031600000000001</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61">
+        <v>9.0290099999999995</v>
+      </c>
+      <c r="I10" s="61">
+        <v>32.417099999999998</v>
+      </c>
+      <c r="J10" s="61">
+        <v>9.9746699999999997</v>
+      </c>
+      <c r="K10" s="61">
+        <v>9.7350300000000001</v>
+      </c>
+      <c r="L10" s="61">
+        <v>8.3478100000000008</v>
+      </c>
+      <c r="M10" s="16">
+        <v>7.3976899999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23">
-        <v>-1.15628</v>
-      </c>
-      <c r="H4" s="20">
-        <v>-1.23315</v>
-      </c>
-      <c r="I4" s="20">
-        <v>-1.2929900000000001</v>
-      </c>
-      <c r="J4" s="20">
-        <v>-1.29165</v>
-      </c>
-      <c r="K4" s="20">
-        <v>-1.2917000000000001</v>
-      </c>
-      <c r="L4" s="20">
-        <v>-1.2917000000000001</v>
-      </c>
-      <c r="M4" s="28">
-        <v>-1.2917000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61">
+        <v>0.92848399999999998</v>
+      </c>
+      <c r="H11" s="61">
+        <v>1.07857</v>
+      </c>
+      <c r="I11" s="61">
+        <v>1.0401400000000001</v>
+      </c>
+      <c r="J11" s="61">
+        <v>1.1287799999999999</v>
+      </c>
+      <c r="K11" s="61">
+        <v>1.16109</v>
+      </c>
+      <c r="L11" s="61">
+        <v>1.1448400000000001</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0.98593799999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="23">
-        <v>-2.0508799999999998</v>
-      </c>
-      <c r="F5" s="20">
-        <v>-2.2150500000000002</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20">
-        <v>-2.2810199999999998</v>
-      </c>
-      <c r="I5" s="20">
-        <v>-2.2805900000000001</v>
-      </c>
-      <c r="J5" s="20">
-        <v>-2.2814899999999998</v>
-      </c>
-      <c r="K5" s="20">
-        <v>-2.2815599999999998</v>
-      </c>
-      <c r="L5" s="20">
-        <v>-2.2799299999999998</v>
-      </c>
-      <c r="M5" s="29">
-        <v>-2.2810100000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61">
+        <v>2.9476800000000001</v>
+      </c>
+      <c r="F12" s="61">
+        <v>1.4350700000000001</v>
+      </c>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61">
+        <v>3.9874900000000002</v>
+      </c>
+      <c r="I12" s="61">
+        <v>4.8409000000000004</v>
+      </c>
+      <c r="J12" s="61">
+        <v>1.5617700000000001</v>
+      </c>
+      <c r="K12" s="61">
+        <v>1.57603</v>
+      </c>
+      <c r="L12" s="61">
+        <v>4.5525200000000003</v>
+      </c>
+      <c r="M12" s="16">
+        <v>2.4393500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32">
-        <v>-2.5345300000000002</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33">
-        <v>-3.1576900000000001</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33">
-        <v>-4.2448399999999999</v>
-      </c>
-      <c r="I6" s="33">
-        <v>-5.2229599999999996</v>
-      </c>
-      <c r="J6" s="33">
-        <v>-5.7119900000000001</v>
-      </c>
-      <c r="K6" s="33">
-        <v>-5.9142700000000001</v>
-      </c>
-      <c r="L6" s="33">
-        <v>-5.9793799999999999</v>
-      </c>
-      <c r="M6" s="34">
-        <v>-5.9931599999999996</v>
+      <c r="B13" s="63"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17">
+        <v>44.9589</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17">
+        <v>122.503</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
+        <v>142.24299999999999</v>
+      </c>
+      <c r="I13" s="17">
+        <v>124.967</v>
+      </c>
+      <c r="J13" s="17">
+        <v>211.232</v>
+      </c>
+      <c r="K13" s="17">
+        <v>185.357</v>
+      </c>
+      <c r="L13" s="17">
+        <v>229.922</v>
+      </c>
+      <c r="M13" s="18">
+        <v>140.16499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="20">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.84</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0.86</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0.87</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0.88</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="M16" s="22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="64">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="65">
+        <v>0</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="65">
+        <v>0</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="65">
+        <v>0.03</v>
+      </c>
+      <c r="I17" s="65">
+        <v>0</v>
+      </c>
+      <c r="J17" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="K17" s="65">
+        <v>1.69</v>
+      </c>
+      <c r="L17" s="65">
+        <v>3.04</v>
+      </c>
+      <c r="M17" s="67">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="35">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="I18" s="35">
+        <v>0.61</v>
+      </c>
+      <c r="J18" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="K18" s="35">
+        <v>2.86</v>
+      </c>
+      <c r="L18" s="35">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="M18" s="37">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="35">
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <v>0</v>
+      </c>
+      <c r="G19" s="61"/>
+      <c r="H19" s="35">
+        <v>0.84</v>
+      </c>
+      <c r="I19" s="35">
+        <v>1.99</v>
+      </c>
+      <c r="J19" s="35">
+        <v>3.11</v>
+      </c>
+      <c r="K19" s="35">
+        <v>4.21</v>
+      </c>
+      <c r="L19" s="35">
+        <v>5.29</v>
+      </c>
+      <c r="M19" s="37">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <v>1.07</v>
+      </c>
+      <c r="M20" s="18">
+        <v>2.0099999999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:M15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B44A87-813A-0F4E-A5D1-E2FF288F36DD}">
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="A1:L54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="51">
+        <v>1</v>
+      </c>
+      <c r="C2" s="52">
+        <v>1.05</v>
+      </c>
+      <c r="D2" s="52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2" s="52">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F2" s="52">
+        <v>1.2</v>
+      </c>
+      <c r="G2" s="52">
+        <v>1.25</v>
+      </c>
+      <c r="H2" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1.35</v>
+      </c>
+      <c r="J2" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="K2" s="52">
+        <v>1.45</v>
+      </c>
+      <c r="L2" s="53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="60">
+        <v>-1.53471</v>
+      </c>
+      <c r="C3" s="61">
+        <v>-2.7743799999999998</v>
+      </c>
+      <c r="D3" s="61">
+        <v>-4.0891299999999999</v>
+      </c>
+      <c r="E3" s="61">
+        <v>-5.3314199999999996</v>
+      </c>
+      <c r="F3" s="61">
+        <v>-6.4863299999999997</v>
+      </c>
+      <c r="G3" s="61">
+        <v>-7.2667200000000003</v>
+      </c>
+      <c r="H3" s="61">
+        <v>-7.4532600000000002</v>
+      </c>
+      <c r="I3" s="61">
+        <v>-7.5927499999999997</v>
+      </c>
+      <c r="J3" s="61">
+        <v>-7.7242300000000004</v>
+      </c>
+      <c r="K3" s="61">
+        <v>-7.6716800000000003</v>
+      </c>
+      <c r="L3" s="16">
+        <v>-7.8611300000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="62">
+        <v>-1.23481</v>
+      </c>
+      <c r="C4" s="61">
+        <v>-1.5385</v>
+      </c>
+      <c r="D4" s="61">
+        <v>-1.8991199999999999</v>
+      </c>
+      <c r="E4" s="61">
+        <v>-2.2501199999999999</v>
+      </c>
+      <c r="F4" s="61">
+        <v>-2.5049199999999998</v>
+      </c>
+      <c r="G4" s="61">
+        <v>-2.9354399999999998</v>
+      </c>
+      <c r="H4" s="61">
+        <v>-3.2768999999999999</v>
+      </c>
+      <c r="I4" s="61">
+        <v>-3.5948899999999999</v>
+      </c>
+      <c r="J4" s="61">
+        <v>-3.9493100000000001</v>
+      </c>
+      <c r="K4" s="61">
+        <v>-4.2320000000000002</v>
+      </c>
+      <c r="L4" s="16">
+        <v>-4.5682099999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="62">
+        <v>-2.0627599999999999</v>
+      </c>
+      <c r="C5" s="61">
+        <v>-2.41865</v>
+      </c>
+      <c r="D5" s="61">
+        <v>-2.9945400000000002</v>
+      </c>
+      <c r="E5" s="61">
+        <v>-3.4371100000000001</v>
+      </c>
+      <c r="F5" s="61">
+        <v>-3.81047</v>
+      </c>
+      <c r="G5" s="61">
+        <v>-4.2753800000000002</v>
+      </c>
+      <c r="H5" s="61">
+        <v>-4.68377</v>
+      </c>
+      <c r="I5" s="61">
+        <v>-5.09999</v>
+      </c>
+      <c r="J5" s="61">
+        <v>-5.5037000000000003</v>
+      </c>
+      <c r="K5" s="61">
+        <v>-5.7949999999999999</v>
+      </c>
+      <c r="L5" s="16">
+        <v>-6.1381699999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="63">
+        <v>-2.4047100000000001</v>
+      </c>
+      <c r="C6" s="17">
+        <v>-3.7648999999999999</v>
+      </c>
+      <c r="D6" s="17">
+        <v>-5.5349899999999996</v>
+      </c>
+      <c r="E6" s="17">
+        <v>-6.2359</v>
+      </c>
+      <c r="F6" s="17">
+        <v>-7.2943199999999999</v>
+      </c>
+      <c r="G6" s="17">
+        <v>-7.6234900000000003</v>
+      </c>
+      <c r="H6" s="17">
+        <v>-8.6134400000000007</v>
+      </c>
+      <c r="I6" s="17">
+        <v>-8.81067</v>
+      </c>
+      <c r="J6" s="17">
+        <v>-9.7289399999999997</v>
+      </c>
+      <c r="K6" s="17">
+        <v>-9.7181300000000004</v>
+      </c>
+      <c r="L6" s="18">
+        <v>-10.128500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="51">
+        <v>1</v>
+      </c>
+      <c r="C9" s="52">
+        <v>1.05</v>
+      </c>
+      <c r="D9" s="52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E9" s="52">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F9" s="52">
+        <v>1.2</v>
+      </c>
+      <c r="G9" s="52">
+        <v>1.25</v>
+      </c>
+      <c r="H9" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1.35</v>
+      </c>
+      <c r="J9" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="K9" s="52">
+        <v>1.45</v>
+      </c>
+      <c r="L9" s="53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="60">
+        <v>3.1955499999999999</v>
+      </c>
+      <c r="C10" s="61">
+        <v>3.66093</v>
+      </c>
+      <c r="D10" s="61">
+        <v>3.81359</v>
+      </c>
+      <c r="E10" s="61">
+        <v>2.4962399999999998</v>
+      </c>
+      <c r="F10" s="61">
+        <v>8.4510100000000001</v>
+      </c>
+      <c r="G10" s="61">
+        <v>2.3244699999999998</v>
+      </c>
+      <c r="H10" s="61">
+        <v>2.8733300000000002</v>
+      </c>
+      <c r="I10" s="61">
+        <v>2.0161899999999999</v>
+      </c>
+      <c r="J10" s="61">
+        <v>1.97529</v>
+      </c>
+      <c r="K10" s="61">
+        <v>1.7171099999999999</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1.85301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="62">
+        <v>1.0304500000000001</v>
+      </c>
+      <c r="C11" s="61">
+        <v>1.08138</v>
+      </c>
+      <c r="D11" s="61">
+        <v>0.93869199999999997</v>
+      </c>
+      <c r="E11" s="61">
+        <v>1.02522</v>
+      </c>
+      <c r="F11" s="61">
+        <v>0.78205999999999998</v>
+      </c>
+      <c r="G11" s="61">
+        <v>6.702</v>
+      </c>
+      <c r="H11" s="61">
+        <v>0.97508899999999998</v>
+      </c>
+      <c r="I11" s="61">
+        <v>0.89023099999999999</v>
+      </c>
+      <c r="J11" s="61">
+        <v>0.93936900000000001</v>
+      </c>
+      <c r="K11" s="61">
+        <v>0.95467199999999997</v>
+      </c>
+      <c r="L11" s="16">
+        <v>7.3017000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="62">
+        <v>2.1990500000000002</v>
+      </c>
+      <c r="C12" s="61">
+        <v>2.4715500000000001</v>
+      </c>
+      <c r="D12" s="61">
+        <v>1.39836</v>
+      </c>
+      <c r="E12" s="61">
+        <v>11.0374</v>
+      </c>
+      <c r="F12" s="61">
+        <v>1.1968099999999999</v>
+      </c>
+      <c r="G12" s="61">
+        <v>1.4365399999999999</v>
+      </c>
+      <c r="H12" s="61">
+        <v>1.22306</v>
+      </c>
+      <c r="I12" s="61">
+        <v>1.0690999999999999</v>
+      </c>
+      <c r="J12" s="61">
+        <v>1.0832299999999999</v>
+      </c>
+      <c r="K12" s="61">
+        <v>1.29739</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1.1089199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="63">
+        <v>92.573800000000006</v>
+      </c>
+      <c r="C13" s="17">
+        <v>98.632199999999997</v>
+      </c>
+      <c r="D13" s="17">
+        <v>45.2151</v>
+      </c>
+      <c r="E13" s="17">
+        <v>77.741200000000006</v>
+      </c>
+      <c r="F13" s="17">
+        <v>38.270499999999998</v>
+      </c>
+      <c r="G13" s="17">
+        <v>55.551200000000001</v>
+      </c>
+      <c r="H13" s="17">
+        <v>32.417900000000003</v>
+      </c>
+      <c r="I13" s="17">
+        <v>59.4375</v>
+      </c>
+      <c r="J13" s="17">
+        <v>33.046700000000001</v>
+      </c>
+      <c r="K13" s="17">
+        <v>91.980599999999995</v>
+      </c>
+      <c r="L13" s="18">
+        <v>47.497399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="51">
+        <v>1</v>
+      </c>
+      <c r="C16" s="52">
+        <v>1.05</v>
+      </c>
+      <c r="D16" s="52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E16" s="52">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F16" s="52">
+        <v>1.2</v>
+      </c>
+      <c r="G16" s="52">
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="I16" s="52">
+        <v>1.35</v>
+      </c>
+      <c r="J16" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="K16" s="52">
+        <v>1.45</v>
+      </c>
+      <c r="L16" s="53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="57">
+        <v>0</v>
+      </c>
+      <c r="C17" s="35">
+        <v>0</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="35">
+        <v>0</v>
+      </c>
+      <c r="H17" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I17" s="35">
+        <v>0.22</v>
+      </c>
+      <c r="J17" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="35">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L17" s="37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="35">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <v>0.41</v>
+      </c>
+      <c r="K18" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="L18" s="37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="57">
+        <v>100</v>
+      </c>
+      <c r="C19" s="35">
+        <v>100</v>
+      </c>
+      <c r="D19" s="35">
+        <v>100</v>
+      </c>
+      <c r="E19" s="35">
+        <v>100</v>
+      </c>
+      <c r="F19" s="35">
+        <v>100</v>
+      </c>
+      <c r="G19" s="35">
+        <v>100</v>
+      </c>
+      <c r="H19" s="35">
+        <v>100</v>
+      </c>
+      <c r="I19" s="35">
+        <v>100</v>
+      </c>
+      <c r="J19" s="35">
+        <v>100</v>
+      </c>
+      <c r="K19" s="35">
+        <v>100</v>
+      </c>
+      <c r="L19" s="37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="C20" s="35">
+        <v>100</v>
+      </c>
+      <c r="D20" s="35">
+        <v>100</v>
+      </c>
+      <c r="E20" s="35">
+        <v>100</v>
+      </c>
+      <c r="F20" s="35">
+        <v>100</v>
+      </c>
+      <c r="G20" s="35">
+        <v>100</v>
+      </c>
+      <c r="H20" s="35">
+        <v>100</v>
+      </c>
+      <c r="I20" s="35">
+        <v>100</v>
+      </c>
+      <c r="J20" s="35">
+        <v>100</v>
+      </c>
+      <c r="K20" s="35">
+        <v>100</v>
+      </c>
+      <c r="L20" s="37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="57">
+        <v>0</v>
+      </c>
+      <c r="C21" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35">
+        <v>0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>0</v>
+      </c>
+      <c r="G21" s="35">
+        <v>0</v>
+      </c>
+      <c r="H21" s="35">
+        <v>0</v>
+      </c>
+      <c r="I21" s="35">
+        <v>0</v>
+      </c>
+      <c r="J21" s="35">
+        <v>0</v>
+      </c>
+      <c r="K21" s="35">
+        <v>0</v>
+      </c>
+      <c r="L21" s="37">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="57">
+        <v>2.67</v>
+      </c>
+      <c r="C22" s="35">
+        <v>22.35</v>
+      </c>
+      <c r="D22" s="35">
+        <v>45.21</v>
+      </c>
+      <c r="E22" s="35">
+        <v>66.11</v>
+      </c>
+      <c r="F22" s="35">
+        <v>85.27</v>
+      </c>
+      <c r="G22" s="35">
+        <v>100</v>
+      </c>
+      <c r="H22" s="35">
+        <v>100</v>
+      </c>
+      <c r="I22" s="35">
+        <v>99.93</v>
+      </c>
+      <c r="J22" s="35">
+        <v>99.96</v>
+      </c>
+      <c r="K22" s="35">
+        <v>100</v>
+      </c>
+      <c r="L22" s="37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="57">
+        <v>0</v>
+      </c>
+      <c r="C23" s="35">
+        <v>0</v>
+      </c>
+      <c r="D23" s="35">
+        <v>0</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0</v>
+      </c>
+      <c r="F23" s="35">
+        <v>0</v>
+      </c>
+      <c r="G23" s="35">
+        <v>3.38</v>
+      </c>
+      <c r="H23" s="35">
+        <v>23.28</v>
+      </c>
+      <c r="I23" s="35">
+        <v>41.39</v>
+      </c>
+      <c r="J23" s="35">
+        <v>58.94</v>
+      </c>
+      <c r="K23" s="35">
+        <v>62.53</v>
+      </c>
+      <c r="L23" s="37">
+        <v>63.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="51">
+        <v>1</v>
+      </c>
+      <c r="C24" s="52">
+        <v>1.05</v>
+      </c>
+      <c r="D24" s="52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E24" s="52">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F24" s="52">
+        <v>1.2</v>
+      </c>
+      <c r="G24" s="52">
+        <v>1.25</v>
+      </c>
+      <c r="H24" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="I24" s="52">
+        <v>1.35</v>
+      </c>
+      <c r="J24" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="K24" s="52">
+        <v>1.45</v>
+      </c>
+      <c r="L24" s="53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="57">
+        <v>0</v>
+      </c>
+      <c r="C25" s="35">
+        <v>0</v>
+      </c>
+      <c r="D25" s="35">
+        <v>0</v>
+      </c>
+      <c r="E25" s="35">
+        <v>0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>0</v>
+      </c>
+      <c r="G25" s="35">
+        <v>0</v>
+      </c>
+      <c r="H25" s="35">
+        <v>0</v>
+      </c>
+      <c r="I25" s="35">
+        <v>0</v>
+      </c>
+      <c r="J25" s="35">
+        <v>0</v>
+      </c>
+      <c r="K25" s="35">
+        <v>0</v>
+      </c>
+      <c r="L25" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="57">
+        <v>0</v>
+      </c>
+      <c r="C26" s="35">
+        <v>17.03</v>
+      </c>
+      <c r="D26" s="35">
+        <v>27.41</v>
+      </c>
+      <c r="E26" s="35">
+        <v>28.86</v>
+      </c>
+      <c r="F26" s="35">
+        <v>29.17</v>
+      </c>
+      <c r="G26" s="35">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="H26" s="35">
+        <v>30.69</v>
+      </c>
+      <c r="I26" s="35">
+        <v>38.81</v>
+      </c>
+      <c r="J26" s="35">
+        <v>36.18</v>
+      </c>
+      <c r="K26" s="35">
+        <v>37.18</v>
+      </c>
+      <c r="L26" s="37">
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="57">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="C27" s="35">
+        <v>8.56</v>
+      </c>
+      <c r="D27" s="35">
+        <v>15.36</v>
+      </c>
+      <c r="E27" s="35">
+        <v>23.33</v>
+      </c>
+      <c r="F27" s="35">
+        <v>30.69</v>
+      </c>
+      <c r="G27" s="35">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="H27" s="35">
+        <v>43.95</v>
+      </c>
+      <c r="I27" s="35">
+        <v>48.12</v>
+      </c>
+      <c r="J27" s="35">
+        <v>54.27</v>
+      </c>
+      <c r="K27" s="35">
+        <v>59.16</v>
+      </c>
+      <c r="L27" s="37">
+        <v>63.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="51">
+        <v>1</v>
+      </c>
+      <c r="C28" s="52">
+        <v>1.05</v>
+      </c>
+      <c r="D28" s="52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E28" s="52">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F28" s="52">
+        <v>1.2</v>
+      </c>
+      <c r="G28" s="52">
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="I28" s="52">
+        <v>1.35</v>
+      </c>
+      <c r="J28" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="K28" s="52">
+        <v>1.45</v>
+      </c>
+      <c r="L28" s="53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="57">
+        <v>0</v>
+      </c>
+      <c r="C29" s="35">
+        <v>0</v>
+      </c>
+      <c r="D29" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="E29" s="35">
+        <v>0</v>
+      </c>
+      <c r="F29" s="35">
+        <v>0</v>
+      </c>
+      <c r="G29" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="H29" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="35">
+        <v>0</v>
+      </c>
+      <c r="J29" s="35">
+        <v>0</v>
+      </c>
+      <c r="K29" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="L29" s="37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="C30" s="35">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="35">
+        <v>0</v>
+      </c>
+      <c r="F30" s="35">
+        <v>0</v>
+      </c>
+      <c r="G30" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="H30" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="I30" s="35">
+        <v>0</v>
+      </c>
+      <c r="J30" s="35">
+        <v>0</v>
+      </c>
+      <c r="K30" s="35">
+        <v>0</v>
+      </c>
+      <c r="L30" s="37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="57">
+        <v>0</v>
+      </c>
+      <c r="C31" s="35">
+        <v>19.78</v>
+      </c>
+      <c r="D31" s="35">
+        <v>40.4</v>
+      </c>
+      <c r="E31" s="35">
+        <v>53.24</v>
+      </c>
+      <c r="F31" s="35">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="G31" s="35">
+        <v>75.19</v>
+      </c>
+      <c r="H31" s="35">
+        <v>85.16</v>
+      </c>
+      <c r="I31" s="35">
+        <v>94.21</v>
+      </c>
+      <c r="J31" s="35">
+        <v>100</v>
+      </c>
+      <c r="K31" s="35">
+        <v>99.92</v>
+      </c>
+      <c r="L31" s="37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="57">
+        <v>0</v>
+      </c>
+      <c r="C32" s="35">
+        <v>0</v>
+      </c>
+      <c r="D32" s="35">
+        <v>0</v>
+      </c>
+      <c r="E32" s="35">
+        <v>0</v>
+      </c>
+      <c r="F32" s="35">
+        <v>0</v>
+      </c>
+      <c r="G32" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="35">
+        <v>0</v>
+      </c>
+      <c r="I32" s="35">
+        <v>0</v>
+      </c>
+      <c r="J32" s="35">
+        <v>0.18</v>
+      </c>
+      <c r="K32" s="35">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L32" s="37">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="57">
+        <v>0</v>
+      </c>
+      <c r="C33" s="35">
+        <v>3.07</v>
+      </c>
+      <c r="D33" s="35">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E33" s="35">
+        <v>20.3</v>
+      </c>
+      <c r="F33" s="35">
+        <v>29.4</v>
+      </c>
+      <c r="G33" s="35">
+        <v>38.19</v>
+      </c>
+      <c r="H33" s="35">
+        <v>46.2</v>
+      </c>
+      <c r="I33" s="35">
+        <v>53.58</v>
+      </c>
+      <c r="J33" s="35">
+        <v>61.95</v>
+      </c>
+      <c r="K33" s="35">
+        <v>65.59</v>
+      </c>
+      <c r="L33" s="37">
+        <v>68.41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="57">
+        <v>19.2</v>
+      </c>
+      <c r="C34" s="35">
+        <v>99.29</v>
+      </c>
+      <c r="D34" s="35">
+        <v>99.39</v>
+      </c>
+      <c r="E34" s="35">
+        <v>100</v>
+      </c>
+      <c r="F34" s="35">
+        <v>99.37</v>
+      </c>
+      <c r="G34" s="35">
+        <v>100</v>
+      </c>
+      <c r="H34" s="35">
+        <v>99.25</v>
+      </c>
+      <c r="I34" s="35">
+        <v>100</v>
+      </c>
+      <c r="J34" s="35">
+        <v>100</v>
+      </c>
+      <c r="K34" s="35">
+        <v>100</v>
+      </c>
+      <c r="L34" s="37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="51">
+        <v>1</v>
+      </c>
+      <c r="C35" s="52">
+        <v>1.05</v>
+      </c>
+      <c r="D35" s="52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E35" s="52">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F35" s="52">
+        <v>1.2</v>
+      </c>
+      <c r="G35" s="52">
+        <v>1.25</v>
+      </c>
+      <c r="H35" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="I35" s="52">
+        <v>1.35</v>
+      </c>
+      <c r="J35" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="K35" s="52">
+        <v>1.45</v>
+      </c>
+      <c r="L35" s="53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="57">
+        <v>0</v>
+      </c>
+      <c r="C36" s="35">
+        <v>0</v>
+      </c>
+      <c r="D36" s="35">
+        <v>0</v>
+      </c>
+      <c r="E36" s="35">
+        <v>0</v>
+      </c>
+      <c r="F36" s="35">
+        <v>0</v>
+      </c>
+      <c r="G36" s="35">
+        <v>0</v>
+      </c>
+      <c r="H36" s="35">
+        <v>0</v>
+      </c>
+      <c r="I36" s="35">
+        <v>0</v>
+      </c>
+      <c r="J36" s="35">
+        <v>0</v>
+      </c>
+      <c r="K36" s="35">
+        <v>0</v>
+      </c>
+      <c r="L36" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="57">
+        <v>0</v>
+      </c>
+      <c r="C37" s="35">
+        <v>0</v>
+      </c>
+      <c r="D37" s="35">
+        <v>0</v>
+      </c>
+      <c r="E37" s="35">
+        <v>0</v>
+      </c>
+      <c r="F37" s="35">
+        <v>0</v>
+      </c>
+      <c r="G37" s="35">
+        <v>0</v>
+      </c>
+      <c r="H37" s="35">
+        <v>0</v>
+      </c>
+      <c r="I37" s="35">
+        <v>0</v>
+      </c>
+      <c r="J37" s="35">
+        <v>0</v>
+      </c>
+      <c r="K37" s="35">
+        <v>0</v>
+      </c>
+      <c r="L37" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="C38" s="35">
+        <v>0</v>
+      </c>
+      <c r="D38" s="35">
+        <v>53.71</v>
+      </c>
+      <c r="E38" s="35">
+        <v>95.35</v>
+      </c>
+      <c r="F38" s="35">
+        <v>100</v>
+      </c>
+      <c r="G38" s="35">
+        <v>95.62</v>
+      </c>
+      <c r="H38" s="35">
+        <v>100</v>
+      </c>
+      <c r="I38" s="35">
+        <v>97.3</v>
+      </c>
+      <c r="J38" s="35">
+        <v>100</v>
+      </c>
+      <c r="K38" s="35">
+        <v>98.18</v>
+      </c>
+      <c r="L38" s="37">
+        <v>97.63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="57">
+        <v>0</v>
+      </c>
+      <c r="C39" s="35">
+        <v>0.08</v>
+      </c>
+      <c r="D39" s="35">
+        <v>0</v>
+      </c>
+      <c r="E39" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="F39" s="35">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="G39" s="35">
+        <v>43.69</v>
+      </c>
+      <c r="H39" s="35">
+        <v>63.18</v>
+      </c>
+      <c r="I39" s="35">
+        <v>85.5</v>
+      </c>
+      <c r="J39" s="35">
+        <v>100</v>
+      </c>
+      <c r="K39" s="35">
+        <v>98.65</v>
+      </c>
+      <c r="L39" s="37">
+        <v>96.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="57">
+        <v>0</v>
+      </c>
+      <c r="C40" s="35">
+        <v>0</v>
+      </c>
+      <c r="D40" s="35">
+        <v>0</v>
+      </c>
+      <c r="E40" s="35">
+        <v>0</v>
+      </c>
+      <c r="F40" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="G40" s="35">
+        <v>0</v>
+      </c>
+      <c r="H40" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="I40" s="35">
+        <v>0</v>
+      </c>
+      <c r="J40" s="35">
+        <v>2.17</v>
+      </c>
+      <c r="K40" s="35">
+        <v>33.69</v>
+      </c>
+      <c r="L40" s="37">
+        <v>64.87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="57">
+        <v>100</v>
+      </c>
+      <c r="C41" s="35">
+        <v>100</v>
+      </c>
+      <c r="D41" s="35">
+        <v>100</v>
+      </c>
+      <c r="E41" s="35">
+        <v>100</v>
+      </c>
+      <c r="F41" s="35">
+        <v>100</v>
+      </c>
+      <c r="G41" s="35">
+        <v>100</v>
+      </c>
+      <c r="H41" s="35">
+        <v>100</v>
+      </c>
+      <c r="I41" s="35">
+        <v>97.3</v>
+      </c>
+      <c r="J41" s="35">
+        <v>100</v>
+      </c>
+      <c r="K41" s="35">
+        <v>95.49</v>
+      </c>
+      <c r="L41" s="37">
+        <v>48.31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C42" s="35">
+        <v>0.43</v>
+      </c>
+      <c r="D42" s="35">
+        <v>0.7</v>
+      </c>
+      <c r="E42" s="35">
+        <v>77.09</v>
+      </c>
+      <c r="F42" s="35">
+        <v>100</v>
+      </c>
+      <c r="G42" s="35">
+        <v>46.35</v>
+      </c>
+      <c r="H42" s="35">
+        <v>100</v>
+      </c>
+      <c r="I42" s="35">
+        <v>69.55</v>
+      </c>
+      <c r="J42" s="35">
+        <v>100</v>
+      </c>
+      <c r="K42" s="35">
+        <v>98.7</v>
+      </c>
+      <c r="L42" s="37">
+        <v>30.46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="57">
+        <v>0.16</v>
+      </c>
+      <c r="C43" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="D43" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="E43" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="F43" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="G43" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="H43" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="I43" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="J43" s="35">
+        <v>94.34</v>
+      </c>
+      <c r="K43" s="35">
+        <v>70.45</v>
+      </c>
+      <c r="L43" s="37">
+        <v>59.66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="57">
+        <v>0</v>
+      </c>
+      <c r="C44" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="D44" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="E44" s="35">
+        <v>0</v>
+      </c>
+      <c r="F44" s="35">
+        <v>0</v>
+      </c>
+      <c r="G44" s="35">
+        <v>0</v>
+      </c>
+      <c r="H44" s="35">
+        <v>0</v>
+      </c>
+      <c r="I44" s="35">
+        <v>0</v>
+      </c>
+      <c r="J44" s="35">
+        <v>0</v>
+      </c>
+      <c r="K44" s="35">
+        <v>50.42</v>
+      </c>
+      <c r="L44" s="37">
+        <v>80.62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="57">
+        <v>0</v>
+      </c>
+      <c r="C45" s="35">
+        <v>0</v>
+      </c>
+      <c r="D45" s="35">
+        <v>0</v>
+      </c>
+      <c r="E45" s="35">
+        <v>0</v>
+      </c>
+      <c r="F45" s="35">
+        <v>0</v>
+      </c>
+      <c r="G45" s="35">
+        <v>0</v>
+      </c>
+      <c r="H45" s="35">
+        <v>0</v>
+      </c>
+      <c r="I45" s="35">
+        <v>0</v>
+      </c>
+      <c r="J45" s="35">
+        <v>0</v>
+      </c>
+      <c r="K45" s="35">
+        <v>0</v>
+      </c>
+      <c r="L45" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="57">
+        <v>0</v>
+      </c>
+      <c r="C46" s="35">
+        <v>0</v>
+      </c>
+      <c r="D46" s="35">
+        <v>0</v>
+      </c>
+      <c r="E46" s="35">
+        <v>0</v>
+      </c>
+      <c r="F46" s="35">
+        <v>0</v>
+      </c>
+      <c r="G46" s="35">
+        <v>0</v>
+      </c>
+      <c r="H46" s="35">
+        <v>0</v>
+      </c>
+      <c r="I46" s="35">
+        <v>0</v>
+      </c>
+      <c r="J46" s="35">
+        <v>0</v>
+      </c>
+      <c r="K46" s="35">
+        <v>0</v>
+      </c>
+      <c r="L46" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="C47" s="35">
+        <v>0.13</v>
+      </c>
+      <c r="D47" s="35">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E47" s="35">
+        <v>0.86</v>
+      </c>
+      <c r="F47" s="35">
+        <v>0.22</v>
+      </c>
+      <c r="G47" s="35">
+        <v>0.21</v>
+      </c>
+      <c r="H47" s="35">
+        <v>0</v>
+      </c>
+      <c r="I47" s="35">
+        <v>0.09</v>
+      </c>
+      <c r="J47" s="35">
+        <v>100</v>
+      </c>
+      <c r="K47" s="35">
+        <v>12.31</v>
+      </c>
+      <c r="L47" s="37">
+        <v>28.17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="57">
+        <v>59.54</v>
+      </c>
+      <c r="C48" s="35">
+        <v>12.07</v>
+      </c>
+      <c r="D48" s="35">
+        <v>100</v>
+      </c>
+      <c r="E48" s="35">
+        <v>76.83</v>
+      </c>
+      <c r="F48" s="35">
+        <v>100</v>
+      </c>
+      <c r="G48" s="35">
+        <v>87.12</v>
+      </c>
+      <c r="H48" s="35">
+        <v>100</v>
+      </c>
+      <c r="I48" s="35">
+        <v>13.48</v>
+      </c>
+      <c r="J48" s="35">
+        <v>100</v>
+      </c>
+      <c r="K48" s="35">
+        <v>43.1</v>
+      </c>
+      <c r="L48" s="37">
+        <v>45.81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="57">
+        <v>0</v>
+      </c>
+      <c r="C49" s="35">
+        <v>0</v>
+      </c>
+      <c r="D49" s="35">
+        <v>0</v>
+      </c>
+      <c r="E49" s="35">
+        <v>72.38</v>
+      </c>
+      <c r="F49" s="35">
+        <v>99.99</v>
+      </c>
+      <c r="G49" s="35">
+        <v>90.58</v>
+      </c>
+      <c r="H49" s="35">
+        <v>100</v>
+      </c>
+      <c r="I49" s="35">
+        <v>91.84</v>
+      </c>
+      <c r="J49" s="35">
+        <v>100</v>
+      </c>
+      <c r="K49" s="35">
+        <v>95.22</v>
+      </c>
+      <c r="L49" s="37">
+        <v>91.35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="57">
+        <v>0</v>
+      </c>
+      <c r="C50" s="35">
+        <v>0</v>
+      </c>
+      <c r="D50" s="35">
+        <v>0</v>
+      </c>
+      <c r="E50" s="35">
+        <v>0</v>
+      </c>
+      <c r="F50" s="35">
+        <v>0</v>
+      </c>
+      <c r="G50" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="H50" s="35">
+        <v>0</v>
+      </c>
+      <c r="I50" s="35">
+        <v>0</v>
+      </c>
+      <c r="J50" s="35">
+        <v>0</v>
+      </c>
+      <c r="K50" s="35">
+        <v>0</v>
+      </c>
+      <c r="L50" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="C51" s="35">
+        <v>0.08</v>
+      </c>
+      <c r="D51" s="35">
+        <v>0</v>
+      </c>
+      <c r="E51" s="35">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F51" s="35">
+        <v>100</v>
+      </c>
+      <c r="G51" s="35">
+        <v>87.49</v>
+      </c>
+      <c r="H51" s="35">
+        <v>100</v>
+      </c>
+      <c r="I51" s="35">
+        <v>94.83</v>
+      </c>
+      <c r="J51" s="35">
+        <v>100</v>
+      </c>
+      <c r="K51" s="35">
+        <v>83.83</v>
+      </c>
+      <c r="L51" s="37">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="C52" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="D52" s="35">
+        <v>0</v>
+      </c>
+      <c r="E52" s="35">
+        <v>0</v>
+      </c>
+      <c r="F52" s="35">
+        <v>0</v>
+      </c>
+      <c r="G52" s="35">
+        <v>0</v>
+      </c>
+      <c r="H52" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="I52" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="J52" s="35">
+        <v>0</v>
+      </c>
+      <c r="K52" s="35">
+        <v>0</v>
+      </c>
+      <c r="L52" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="57">
+        <v>15.74</v>
+      </c>
+      <c r="C53" s="35">
+        <v>70.92</v>
+      </c>
+      <c r="D53" s="35">
+        <v>100</v>
+      </c>
+      <c r="E53" s="35">
+        <v>95.53</v>
+      </c>
+      <c r="F53" s="35">
+        <v>100</v>
+      </c>
+      <c r="G53" s="35">
+        <v>98.97</v>
+      </c>
+      <c r="H53" s="35">
+        <v>100</v>
+      </c>
+      <c r="I53" s="35">
+        <v>96.41</v>
+      </c>
+      <c r="J53" s="35">
+        <v>100</v>
+      </c>
+      <c r="K53" s="35">
+        <v>95.75</v>
+      </c>
+      <c r="L53" s="37">
+        <v>99.26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="58">
+        <v>0</v>
+      </c>
+      <c r="C54" s="39">
+        <v>0</v>
+      </c>
+      <c r="D54" s="39">
+        <v>0</v>
+      </c>
+      <c r="E54" s="39">
+        <v>0</v>
+      </c>
+      <c r="F54" s="39">
+        <v>0</v>
+      </c>
+      <c r="G54" s="39">
+        <v>0</v>
+      </c>
+      <c r="H54" s="39">
+        <v>0</v>
+      </c>
+      <c r="I54" s="39">
+        <v>0</v>
+      </c>
+      <c r="J54" s="39">
+        <v>0</v>
+      </c>
+      <c r="K54" s="39">
+        <v>0</v>
+      </c>
+      <c r="L54" s="41">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Processed Datasets/Results.xlsx
+++ b/Processed Datasets/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyeske/Desktop/Fall 2025/Optimization Methods/Project/Processed Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B535F3B7-E4D3-C64B-B640-19E297E9B179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914AD09-1A64-934E-A37B-5DA38E20A40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35980" yWindow="0" windowWidth="30340" windowHeight="17360" activeTab="2" xr2:uid="{7CBF7E08-C6C4-A045-9677-85FC55C6D140}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28000" windowHeight="17420" activeTab="3" xr2:uid="{7CBF7E08-C6C4-A045-9677-85FC55C6D140}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem Statistics" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t>A320NEO</t>
   </si>
@@ -161,27 +161,12 @@
     <t>System-wide Fuel Consumption Reduction (%)</t>
   </si>
   <si>
-    <t>Baseline LF (%)</t>
-  </si>
-  <si>
     <t>Aircraft Utilization Sensitivity</t>
   </si>
   <si>
     <t>Passengers (million)</t>
   </si>
   <si>
-    <t>Baseline System-wide Fuel Consumption (million L)</t>
-  </si>
-  <si>
-    <t>Revenue Passenger Miles (billion RPKs)</t>
-  </si>
-  <si>
-    <t>Available Seat Miles (billion ASKs)</t>
-  </si>
-  <si>
-    <t>Optimal System-wide Fuel Consumption (million L)</t>
-  </si>
-  <si>
     <t>2.03s</t>
   </si>
   <si>
@@ -201,14 +186,36 @@
   </si>
   <si>
     <t>Load Factor Constraint - Slack (%)</t>
+  </si>
+  <si>
+    <t>2024 System-wide Fuel Consumption (million L)</t>
+  </si>
+  <si>
+    <t>2024 System-wide Fuel Intensity (L/RPK)</t>
+  </si>
+  <si>
+    <t>Revenue Passenger-kms (billion RPKs)</t>
+  </si>
+  <si>
+    <t>Available Seat-kms (billion ASKs)</t>
+  </si>
+  <si>
+    <t>Optimized System-wide Fuel Consumption (million L)</t>
+  </si>
+  <si>
+    <t>Optimized System-wide Fuel Intensity (L/RPK)</t>
+  </si>
+  <si>
+    <t>Baseline Load Factor (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -623,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,6 +704,106 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,107 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1152,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE2F936-89DF-F643-A9AE-EB85812C3DF7}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1168,430 +1174,405 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="2">
         <v>904</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="28">
         <v>546</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="28">
         <v>430</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="29">
         <v>1413</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="2">
         <v>109</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="28">
         <v>66</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="28">
         <v>57</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="29">
         <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="2">
         <v>131</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="28">
         <v>114</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="28">
         <v>162</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="29">
         <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="31">
         <v>5</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="32">
         <v>3</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="32">
         <v>6</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="33">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2">
+        <v>29.71</v>
+      </c>
+      <c r="C6" s="28">
+        <v>28.87</v>
+      </c>
+      <c r="D6" s="28">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E6" s="29">
+        <v>94.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2">
+        <v>30.35</v>
+      </c>
+      <c r="C7" s="28">
+        <v>31.54</v>
+      </c>
+      <c r="D7" s="28">
+        <v>39.58</v>
+      </c>
+      <c r="E7" s="29">
+        <v>101.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2">
+        <v>36.93</v>
+      </c>
+      <c r="C8" s="28">
+        <v>37.26</v>
+      </c>
+      <c r="D8" s="28">
+        <v>47.33</v>
+      </c>
+      <c r="E8" s="29">
+        <v>122.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="39">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C9" s="40">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E9" s="42">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6328</v>
+      </c>
+      <c r="C10" s="28">
+        <v>1638</v>
+      </c>
+      <c r="D10" s="28">
+        <v>2580</v>
+      </c>
+      <c r="E10" s="29">
+        <v>26847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2466</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1346</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1470</v>
+      </c>
+      <c r="E11" s="29">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="35">
-        <v>29.71</v>
-      </c>
-      <c r="C6" s="36">
-        <v>28.87</v>
-      </c>
-      <c r="D6" s="36">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E6" s="37">
-        <v>94.81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="C12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="35">
-        <v>30.35</v>
-      </c>
-      <c r="C7" s="36">
-        <v>31.54</v>
-      </c>
-      <c r="D7" s="36">
-        <v>39.58</v>
-      </c>
-      <c r="E7" s="37">
-        <v>101.93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="E12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="35">
-        <v>36.93</v>
-      </c>
-      <c r="C8" s="36">
-        <v>37.26</v>
-      </c>
-      <c r="D8" s="36">
-        <v>47.33</v>
-      </c>
-      <c r="E8" s="37">
-        <v>122.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="47">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="C9" s="48">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="D9" s="48">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="E9" s="50">
-        <v>0.83399999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="35">
-        <v>6328</v>
-      </c>
-      <c r="C10" s="36">
-        <v>1638</v>
-      </c>
-      <c r="D10" s="36">
-        <v>2580</v>
-      </c>
-      <c r="E10" s="37">
-        <v>26847</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="35">
-        <v>2466</v>
-      </c>
-      <c r="C11" s="36">
-        <v>1346</v>
-      </c>
-      <c r="D11" s="36">
-        <v>1470</v>
-      </c>
-      <c r="E11" s="37">
-        <v>3929</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="36" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1E-4</v>
+      </c>
+      <c r="C13" s="40">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D13" s="41">
+        <v>0</v>
+      </c>
+      <c r="E13" s="42">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="B14" s="2">
+        <v>994</v>
+      </c>
+      <c r="C14" s="28">
+        <v>944</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1357</v>
+      </c>
+      <c r="E14" s="29">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2">
+        <v>979</v>
+      </c>
+      <c r="C15" s="28">
+        <v>932</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1329</v>
+      </c>
+      <c r="E15" s="29">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="47">
-        <v>1E-4</v>
-      </c>
-      <c r="C13" s="48">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D13" s="49">
-        <v>0</v>
-      </c>
-      <c r="E13" s="50">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="35">
-        <v>994</v>
-      </c>
-      <c r="C14" s="36">
-        <v>944</v>
-      </c>
-      <c r="D14" s="36">
-        <v>1357</v>
-      </c>
-      <c r="E14" s="37">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="35">
-        <v>979</v>
-      </c>
-      <c r="C15" s="36">
-        <v>932</v>
-      </c>
-      <c r="D15" s="36">
-        <v>1329</v>
-      </c>
-      <c r="E15" s="37">
-        <v>3230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="B16" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C16" s="60">
+        <v>0.03</v>
+      </c>
+      <c r="D16" s="28">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E16" s="29">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C17" s="60">
+        <v>0.03</v>
+      </c>
+      <c r="D17" s="28">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E17" s="29">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="39">
-        <v>-1.48</v>
-      </c>
-      <c r="C16" s="40">
-        <v>-1.22</v>
-      </c>
-      <c r="D16" s="40">
+      <c r="B18" s="31">
+        <v>-1.54</v>
+      </c>
+      <c r="C18" s="32">
+        <v>-1.17</v>
+      </c>
+      <c r="D18" s="32">
         <v>-2.0699999999999998</v>
       </c>
-      <c r="E16" s="41">
-        <v>-2.79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="E18" s="33">
+        <v>-2.77</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1627,26 +1608,26 @@
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="27" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="29"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -2369,8 +2350,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2380,26 +2361,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="29"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="66"/>
       <c r="B2" s="20">
         <v>0.82199999999999995</v>
       </c>
@@ -2441,31 +2422,31 @@
       <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="60">
-        <v>-1.53382</v>
-      </c>
-      <c r="C3" s="61">
+      <c r="B3" s="52">
+        <v>-1.54</v>
+      </c>
+      <c r="C3" s="53">
         <v>-2.29013</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53">
         <v>-3.0202</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53">
         <v>-3.6493099999999998</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="53">
         <v>-3.6987000000000001</v>
       </c>
-      <c r="J3" s="61">
+      <c r="J3" s="53">
         <v>-4.1265299999999998</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="53">
         <v>-4.1307299999999998</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="53">
         <v>-4.1400699999999997</v>
       </c>
       <c r="M3" s="16">
@@ -2476,27 +2457,27 @@
       <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61">
-        <v>-1.23584</v>
-      </c>
-      <c r="H4" s="61">
+      <c r="B4" s="54"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53">
+        <v>-1.17</v>
+      </c>
+      <c r="H4" s="53">
         <v>-1.23183</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="53">
         <v>-1.25851</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="53">
         <v>-1.2704800000000001</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="53">
         <v>-1.2875399999999999</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="53">
         <v>-1.2883500000000001</v>
       </c>
       <c r="M4" s="16">
@@ -2507,29 +2488,29 @@
       <c r="A5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61">
+      <c r="B5" s="54"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53">
         <v>-2.0666500000000001</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="53">
         <v>-2.2239800000000001</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61">
+      <c r="G5" s="53"/>
+      <c r="H5" s="53">
         <v>-2.2905000000000002</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="53">
         <v>-2.2911000000000001</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="53">
         <v>-2.29196</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="53">
         <v>-2.2890299999999999</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="53">
         <v>-2.2912699999999999</v>
       </c>
       <c r="M5" s="16">
@@ -2540,10 +2521,10 @@
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17">
-        <v>-2.8506100000000001</v>
+        <v>-2.77</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17">
@@ -2584,26 +2565,26 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="63"/>
     </row>
     <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="20">
         <v>0.82199999999999995</v>
       </c>
@@ -2645,31 +2626,31 @@
       <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="52">
         <v>3.11124</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="53">
         <v>6.5781000000000001</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53">
         <v>8.8031600000000001</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53">
         <v>9.0290099999999995</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="53">
         <v>32.417099999999998</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="53">
         <v>9.9746699999999997</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="53">
         <v>9.7350300000000001</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="53">
         <v>8.3478100000000008</v>
       </c>
       <c r="M10" s="16">
@@ -2680,27 +2661,27 @@
       <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61">
+      <c r="B11" s="54"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53">
         <v>0.92848399999999998</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="53">
         <v>1.07857</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="53">
         <v>1.0401400000000001</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="53">
         <v>1.1287799999999999</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="53">
         <v>1.16109</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="53">
         <v>1.1448400000000001</v>
       </c>
       <c r="M11" s="16">
@@ -2711,29 +2692,29 @@
       <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61">
+      <c r="B12" s="54"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53">
         <v>2.9476800000000001</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="53">
         <v>1.4350700000000001</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53">
         <v>3.9874900000000002</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="53">
         <v>4.8409000000000004</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="53">
         <v>1.5617700000000001</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="53">
         <v>1.57603</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="53">
         <v>4.5525200000000003</v>
       </c>
       <c r="M12" s="16">
@@ -2744,7 +2725,7 @@
       <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17">
         <v>44.9589</v>
@@ -2775,26 +2756,26 @@
     </row>
     <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="29"/>
+      <c r="B15" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="63"/>
     </row>
     <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="20">
         <v>0.82199999999999995</v>
       </c>
@@ -2836,34 +2817,34 @@
       <c r="A17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17" s="56">
         <v>0.01</v>
       </c>
-      <c r="C17" s="65">
-        <v>0</v>
-      </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="65">
-        <v>0</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="65">
+      <c r="C17" s="57">
+        <v>0</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="57">
+        <v>0</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="57">
         <v>0.03</v>
       </c>
-      <c r="I17" s="65">
-        <v>0</v>
-      </c>
-      <c r="J17" s="65">
+      <c r="I17" s="57">
+        <v>0</v>
+      </c>
+      <c r="J17" s="57">
         <v>0.7</v>
       </c>
-      <c r="K17" s="65">
+      <c r="K17" s="57">
         <v>1.69</v>
       </c>
-      <c r="L17" s="65">
+      <c r="L17" s="57">
         <v>3.04</v>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="59">
         <v>4.2</v>
       </c>
     </row>
@@ -2871,30 +2852,30 @@
       <c r="A18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
+      <c r="B18" s="54"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <v>0.03</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="2">
         <v>0.61</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="2">
         <v>1.81</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="2">
         <v>2.86</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="2">
         <v>4.2300000000000004</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="29">
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -2902,32 +2883,32 @@
       <c r="A19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="35">
-        <v>0</v>
-      </c>
-      <c r="F19" s="35">
-        <v>0</v>
-      </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="35">
+      <c r="B19" s="54"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="2">
         <v>0.84</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="2">
         <v>1.99</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="2">
         <v>3.11</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="2">
         <v>4.21</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="2">
         <v>5.29</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="29">
         <v>6.34</v>
       </c>
     </row>
@@ -2935,7 +2916,7 @@
       <c r="A20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
         <v>0</v>
@@ -2982,8 +2963,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2993,56 +2974,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="29"/>
+      <c r="B1" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="51">
+      <c r="A2" s="66"/>
+      <c r="B2" s="43">
         <v>1</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="44">
         <v>1.05</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="44">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="44">
         <v>1.2</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="44">
         <v>1.25</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="44">
         <v>1.3</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="44">
         <v>1.35</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="44">
         <v>1.4</v>
       </c>
-      <c r="K2" s="52">
+      <c r="K2" s="44">
         <v>1.45</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="45">
         <v>1.5</v>
       </c>
     </row>
@@ -3050,34 +3031,34 @@
       <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="60">
-        <v>-1.53471</v>
-      </c>
-      <c r="C3" s="61">
+      <c r="B3" s="52">
+        <v>-1.54</v>
+      </c>
+      <c r="C3" s="53">
         <v>-2.7743799999999998</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="53">
         <v>-4.0891299999999999</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="53">
         <v>-5.3314199999999996</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="53">
         <v>-6.4863299999999997</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="53">
         <v>-7.2667200000000003</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="53">
         <v>-7.4532600000000002</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="53">
         <v>-7.5927499999999997</v>
       </c>
-      <c r="J3" s="61">
+      <c r="J3" s="53">
         <v>-7.7242300000000004</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="53">
         <v>-7.6716800000000003</v>
       </c>
       <c r="L3" s="16">
@@ -3088,34 +3069,34 @@
       <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="62">
-        <v>-1.23481</v>
-      </c>
-      <c r="C4" s="61">
+      <c r="B4" s="54">
+        <v>-1.17</v>
+      </c>
+      <c r="C4" s="53">
         <v>-1.5385</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="53">
         <v>-1.8991199999999999</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="53">
         <v>-2.2501199999999999</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="53">
         <v>-2.5049199999999998</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="53">
         <v>-2.9354399999999998</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="53">
         <v>-3.2768999999999999</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="53">
         <v>-3.5948899999999999</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="53">
         <v>-3.9493100000000001</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="53">
         <v>-4.2320000000000002</v>
       </c>
       <c r="L4" s="16">
@@ -3126,34 +3107,34 @@
       <c r="A5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="62">
-        <v>-2.0627599999999999</v>
-      </c>
-      <c r="C5" s="61">
+      <c r="B5" s="54">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C5" s="53">
         <v>-2.41865</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="53">
         <v>-2.9945400000000002</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="53">
         <v>-3.4371100000000001</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="53">
         <v>-3.81047</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="53">
         <v>-4.2753800000000002</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="53">
         <v>-4.68377</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="53">
         <v>-5.09999</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="53">
         <v>-5.5037000000000003</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="53">
         <v>-5.7949999999999999</v>
       </c>
       <c r="L5" s="16">
@@ -3164,8 +3145,8 @@
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="63">
-        <v>-2.4047100000000001</v>
+      <c r="B6" s="55">
+        <v>-2.77</v>
       </c>
       <c r="C6" s="17">
         <v>-3.7648999999999999</v>
@@ -3200,56 +3181,56 @@
     </row>
     <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="29"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="63"/>
     </row>
     <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="51">
+      <c r="A9" s="66"/>
+      <c r="B9" s="43">
         <v>1</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="44">
         <v>1.05</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="44">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="44">
         <v>1.2</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="44">
         <v>1.25</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="44">
         <v>1.3</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="44">
         <v>1.35</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="44">
         <v>1.4</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="44">
         <v>1.45</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="45">
         <v>1.5</v>
       </c>
     </row>
@@ -3257,34 +3238,34 @@
       <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="60">
-        <v>3.1955499999999999</v>
-      </c>
-      <c r="C10" s="61">
+      <c r="B10" s="52">
+        <v>3.11</v>
+      </c>
+      <c r="C10" s="53">
         <v>3.66093</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="53">
         <v>3.81359</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="53">
         <v>2.4962399999999998</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="53">
         <v>8.4510100000000001</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="53">
         <v>2.3244699999999998</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="53">
         <v>2.8733300000000002</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="53">
         <v>2.0161899999999999</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="53">
         <v>1.97529</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="53">
         <v>1.7171099999999999</v>
       </c>
       <c r="L10" s="16">
@@ -3295,34 +3276,34 @@
       <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="62">
-        <v>1.0304500000000001</v>
-      </c>
-      <c r="C11" s="61">
+      <c r="B11" s="54">
+        <v>0.93</v>
+      </c>
+      <c r="C11" s="53">
         <v>1.08138</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="53">
         <v>0.93869199999999997</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="53">
         <v>1.02522</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="53">
         <v>0.78205999999999998</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="53">
         <v>6.702</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="53">
         <v>0.97508899999999998</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="53">
         <v>0.89023099999999999</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="53">
         <v>0.93936900000000001</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="53">
         <v>0.95467199999999997</v>
       </c>
       <c r="L11" s="16">
@@ -3333,34 +3314,34 @@
       <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="62">
-        <v>2.1990500000000002</v>
-      </c>
-      <c r="C12" s="61">
+      <c r="B12" s="54">
+        <v>2.95</v>
+      </c>
+      <c r="C12" s="53">
         <v>2.4715500000000001</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="53">
         <v>1.39836</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="53">
         <v>11.0374</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="53">
         <v>1.1968099999999999</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="53">
         <v>1.4365399999999999</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="53">
         <v>1.22306</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="53">
         <v>1.0690999999999999</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="53">
         <v>1.0832299999999999</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="53">
         <v>1.29739</v>
       </c>
       <c r="L12" s="16">
@@ -3371,8 +3352,8 @@
       <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="63">
-        <v>92.573800000000006</v>
+      <c r="B13" s="55">
+        <v>44.96</v>
       </c>
       <c r="C13" s="17">
         <v>98.632199999999997</v>
@@ -3410,1499 +3391,1499 @@
       <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="29"/>
+      <c r="B15" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="63"/>
     </row>
     <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="43">
         <v>1</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="44">
         <v>1.05</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="44">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="44">
         <v>1.2</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="44">
         <v>1.25</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="44">
         <v>1.3</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="44">
         <v>1.35</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J16" s="44">
         <v>1.4</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="44">
         <v>1.45</v>
       </c>
-      <c r="L16" s="53">
+      <c r="L16" s="45">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="57">
-        <v>0</v>
-      </c>
-      <c r="C17" s="35">
-        <v>0</v>
-      </c>
-      <c r="D17" s="35">
-        <v>0</v>
-      </c>
-      <c r="E17" s="35">
-        <v>0</v>
-      </c>
-      <c r="F17" s="35">
-        <v>0</v>
-      </c>
-      <c r="G17" s="35">
-        <v>0</v>
-      </c>
-      <c r="H17" s="35">
+      <c r="A17" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="49">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="2">
         <v>0.22</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="2">
         <v>0.01</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="29">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="49">
         <v>0.01</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="2">
         <v>0.02</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="2">
         <v>0.02</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="2">
         <v>0.01</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="2">
         <v>0.01</v>
       </c>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-      <c r="I18" s="35">
-        <v>0</v>
-      </c>
-      <c r="J18" s="35">
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
         <v>0.41</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="2">
         <v>0.03</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="29">
         <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="57">
-        <v>100</v>
-      </c>
-      <c r="C19" s="35">
-        <v>100</v>
-      </c>
-      <c r="D19" s="35">
-        <v>100</v>
-      </c>
-      <c r="E19" s="35">
-        <v>100</v>
-      </c>
-      <c r="F19" s="35">
-        <v>100</v>
-      </c>
-      <c r="G19" s="35">
-        <v>100</v>
-      </c>
-      <c r="H19" s="35">
-        <v>100</v>
-      </c>
-      <c r="I19" s="35">
-        <v>100</v>
-      </c>
-      <c r="J19" s="35">
-        <v>100</v>
-      </c>
-      <c r="K19" s="35">
-        <v>100</v>
-      </c>
-      <c r="L19" s="37">
+      <c r="B19" s="49">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2">
+        <v>100</v>
+      </c>
+      <c r="F19" s="2">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2">
+        <v>100</v>
+      </c>
+      <c r="H19" s="2">
+        <v>100</v>
+      </c>
+      <c r="I19" s="2">
+        <v>100</v>
+      </c>
+      <c r="J19" s="2">
+        <v>100</v>
+      </c>
+      <c r="K19" s="2">
+        <v>100</v>
+      </c>
+      <c r="L19" s="29">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="49">
         <v>0.09</v>
       </c>
-      <c r="C20" s="35">
-        <v>100</v>
-      </c>
-      <c r="D20" s="35">
-        <v>100</v>
-      </c>
-      <c r="E20" s="35">
-        <v>100</v>
-      </c>
-      <c r="F20" s="35">
-        <v>100</v>
-      </c>
-      <c r="G20" s="35">
-        <v>100</v>
-      </c>
-      <c r="H20" s="35">
-        <v>100</v>
-      </c>
-      <c r="I20" s="35">
-        <v>100</v>
-      </c>
-      <c r="J20" s="35">
-        <v>100</v>
-      </c>
-      <c r="K20" s="35">
-        <v>100</v>
-      </c>
-      <c r="L20" s="37">
+      <c r="C20" s="2">
+        <v>100</v>
+      </c>
+      <c r="D20" s="2">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2">
+        <v>100</v>
+      </c>
+      <c r="F20" s="2">
+        <v>100</v>
+      </c>
+      <c r="G20" s="2">
+        <v>100</v>
+      </c>
+      <c r="H20" s="2">
+        <v>100</v>
+      </c>
+      <c r="I20" s="2">
+        <v>100</v>
+      </c>
+      <c r="J20" s="2">
+        <v>100</v>
+      </c>
+      <c r="K20" s="2">
+        <v>100</v>
+      </c>
+      <c r="L20" s="29">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="57">
-        <v>0</v>
-      </c>
-      <c r="C21" s="35">
+      <c r="B21" s="49">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
         <v>0.01</v>
       </c>
-      <c r="D21" s="35">
-        <v>0</v>
-      </c>
-      <c r="E21" s="35">
-        <v>0</v>
-      </c>
-      <c r="F21" s="35">
-        <v>0</v>
-      </c>
-      <c r="G21" s="35">
-        <v>0</v>
-      </c>
-      <c r="H21" s="35">
-        <v>0</v>
-      </c>
-      <c r="I21" s="35">
-        <v>0</v>
-      </c>
-      <c r="J21" s="35">
-        <v>0</v>
-      </c>
-      <c r="K21" s="35">
-        <v>0</v>
-      </c>
-      <c r="L21" s="37">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="29">
         <v>0.11</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="49">
         <v>2.67</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="2">
         <v>22.35</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="2">
         <v>45.21</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="2">
         <v>66.11</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="2">
         <v>85.27</v>
       </c>
-      <c r="G22" s="35">
-        <v>100</v>
-      </c>
-      <c r="H22" s="35">
-        <v>100</v>
-      </c>
-      <c r="I22" s="35">
+      <c r="G22" s="2">
+        <v>100</v>
+      </c>
+      <c r="H22" s="2">
+        <v>100</v>
+      </c>
+      <c r="I22" s="2">
         <v>99.93</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="2">
         <v>99.96</v>
       </c>
-      <c r="K22" s="35">
-        <v>100</v>
-      </c>
-      <c r="L22" s="37">
+      <c r="K22" s="2">
+        <v>100</v>
+      </c>
+      <c r="L22" s="29">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="57">
-        <v>0</v>
-      </c>
-      <c r="C23" s="35">
-        <v>0</v>
-      </c>
-      <c r="D23" s="35">
-        <v>0</v>
-      </c>
-      <c r="E23" s="35">
-        <v>0</v>
-      </c>
-      <c r="F23" s="35">
-        <v>0</v>
-      </c>
-      <c r="G23" s="35">
+      <c r="B23" s="49">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
         <v>3.38</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="2">
         <v>23.28</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="2">
         <v>41.39</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="2">
         <v>58.94</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="2">
         <v>62.53</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="29">
         <v>63.92</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="43">
         <v>1</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="44">
         <v>1.05</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="44">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="44">
         <v>1.2</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="44">
         <v>1.25</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="44">
         <v>1.3</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="44">
         <v>1.35</v>
       </c>
-      <c r="J24" s="52">
+      <c r="J24" s="44">
         <v>1.4</v>
       </c>
-      <c r="K24" s="52">
+      <c r="K24" s="44">
         <v>1.45</v>
       </c>
-      <c r="L24" s="53">
+      <c r="L24" s="45">
         <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="57">
-        <v>0</v>
-      </c>
-      <c r="C25" s="35">
-        <v>0</v>
-      </c>
-      <c r="D25" s="35">
-        <v>0</v>
-      </c>
-      <c r="E25" s="35">
-        <v>0</v>
-      </c>
-      <c r="F25" s="35">
-        <v>0</v>
-      </c>
-      <c r="G25" s="35">
-        <v>0</v>
-      </c>
-      <c r="H25" s="35">
-        <v>0</v>
-      </c>
-      <c r="I25" s="35">
-        <v>0</v>
-      </c>
-      <c r="J25" s="35">
-        <v>0</v>
-      </c>
-      <c r="K25" s="35">
-        <v>0</v>
-      </c>
-      <c r="L25" s="37">
+      <c r="B25" s="49">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="57">
-        <v>0</v>
-      </c>
-      <c r="C26" s="35">
+      <c r="B26" s="49">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
         <v>17.03</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="2">
         <v>27.41</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="2">
         <v>28.86</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="2">
         <v>29.17</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="2">
         <v>34.340000000000003</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="2">
         <v>30.69</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="2">
         <v>38.81</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="2">
         <v>36.18</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="2">
         <v>37.18</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="29">
         <v>38.81</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="49">
         <v>4.3600000000000003</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="2">
         <v>8.56</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="2">
         <v>15.36</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="2">
         <v>23.33</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="2">
         <v>30.69</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="2">
         <v>36.700000000000003</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="2">
         <v>43.95</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="2">
         <v>48.12</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="2">
         <v>54.27</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="2">
         <v>59.16</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="29">
         <v>63.67</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="51">
+      <c r="A28" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="43">
         <v>1</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="44">
         <v>1.05</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="44">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="44">
         <v>1.2</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="44">
         <v>1.25</v>
       </c>
-      <c r="H28" s="52">
+      <c r="H28" s="44">
         <v>1.3</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="44">
         <v>1.35</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="44">
         <v>1.4</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="44">
         <v>1.45</v>
       </c>
-      <c r="L28" s="53">
+      <c r="L28" s="45">
         <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="57">
-        <v>0</v>
-      </c>
-      <c r="C29" s="35">
-        <v>0</v>
-      </c>
-      <c r="D29" s="35">
+      <c r="A29" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="49">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.01</v>
       </c>
-      <c r="E29" s="35">
-        <v>0</v>
-      </c>
-      <c r="F29" s="35">
-        <v>0</v>
-      </c>
-      <c r="G29" s="35">
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
         <v>0.01</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="2">
         <v>0.01</v>
       </c>
-      <c r="I29" s="35">
-        <v>0</v>
-      </c>
-      <c r="J29" s="35">
-        <v>0</v>
-      </c>
-      <c r="K29" s="35">
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
         <v>0.02</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="29">
         <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="49">
         <v>0.01</v>
       </c>
-      <c r="C30" s="35">
-        <v>0</v>
-      </c>
-      <c r="D30" s="35">
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
         <v>0.01</v>
       </c>
-      <c r="E30" s="35">
-        <v>0</v>
-      </c>
-      <c r="F30" s="35">
-        <v>0</v>
-      </c>
-      <c r="G30" s="35">
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
         <v>0.01</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="2">
         <v>0.01</v>
       </c>
-      <c r="I30" s="35">
-        <v>0</v>
-      </c>
-      <c r="J30" s="35">
-        <v>0</v>
-      </c>
-      <c r="K30" s="35">
-        <v>0</v>
-      </c>
-      <c r="L30" s="37">
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="29">
         <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="57">
-        <v>0</v>
-      </c>
-      <c r="C31" s="35">
+      <c r="B31" s="49">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
         <v>19.78</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="2">
         <v>40.4</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="2">
         <v>53.24</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="2">
         <v>64.900000000000006</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="2">
         <v>75.19</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="2">
         <v>85.16</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="2">
         <v>94.21</v>
       </c>
-      <c r="J31" s="35">
-        <v>100</v>
-      </c>
-      <c r="K31" s="35">
+      <c r="J31" s="2">
+        <v>100</v>
+      </c>
+      <c r="K31" s="2">
         <v>99.92</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="29">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="57">
-        <v>0</v>
-      </c>
-      <c r="C32" s="35">
-        <v>0</v>
-      </c>
-      <c r="D32" s="35">
-        <v>0</v>
-      </c>
-      <c r="E32" s="35">
-        <v>0</v>
-      </c>
-      <c r="F32" s="35">
-        <v>0</v>
-      </c>
-      <c r="G32" s="35">
+      <c r="B32" s="49">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
         <v>0.1</v>
       </c>
-      <c r="H32" s="35">
-        <v>0</v>
-      </c>
-      <c r="I32" s="35">
-        <v>0</v>
-      </c>
-      <c r="J32" s="35">
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
         <v>0.18</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="2">
         <v>4.2699999999999996</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="29">
         <v>8.39</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="57">
-        <v>0</v>
-      </c>
-      <c r="C33" s="35">
+      <c r="B33" s="49">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
         <v>3.07</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="2">
         <v>10.220000000000001</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="2">
         <v>20.3</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="2">
         <v>29.4</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="2">
         <v>38.19</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="2">
         <v>46.2</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="2">
         <v>53.58</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="2">
         <v>61.95</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="2">
         <v>65.59</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="29">
         <v>68.41</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="49">
         <v>19.2</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="2">
         <v>99.29</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="2">
         <v>99.39</v>
       </c>
-      <c r="E34" s="35">
-        <v>100</v>
-      </c>
-      <c r="F34" s="35">
+      <c r="E34" s="2">
+        <v>100</v>
+      </c>
+      <c r="F34" s="2">
         <v>99.37</v>
       </c>
-      <c r="G34" s="35">
-        <v>100</v>
-      </c>
-      <c r="H34" s="35">
+      <c r="G34" s="2">
+        <v>100</v>
+      </c>
+      <c r="H34" s="2">
         <v>99.25</v>
       </c>
-      <c r="I34" s="35">
-        <v>100</v>
-      </c>
-      <c r="J34" s="35">
-        <v>100</v>
-      </c>
-      <c r="K34" s="35">
-        <v>100</v>
-      </c>
-      <c r="L34" s="37">
+      <c r="I34" s="2">
+        <v>100</v>
+      </c>
+      <c r="J34" s="2">
+        <v>100</v>
+      </c>
+      <c r="K34" s="2">
+        <v>100</v>
+      </c>
+      <c r="L34" s="29">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35" s="43">
         <v>1</v>
       </c>
-      <c r="C35" s="52">
+      <c r="C35" s="44">
         <v>1.05</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="44">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="44">
         <v>1.2</v>
       </c>
-      <c r="G35" s="52">
+      <c r="G35" s="44">
         <v>1.25</v>
       </c>
-      <c r="H35" s="52">
+      <c r="H35" s="44">
         <v>1.3</v>
       </c>
-      <c r="I35" s="52">
+      <c r="I35" s="44">
         <v>1.35</v>
       </c>
-      <c r="J35" s="52">
+      <c r="J35" s="44">
         <v>1.4</v>
       </c>
-      <c r="K35" s="52">
+      <c r="K35" s="44">
         <v>1.45</v>
       </c>
-      <c r="L35" s="53">
+      <c r="L35" s="45">
         <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="57">
-        <v>0</v>
-      </c>
-      <c r="C36" s="35">
-        <v>0</v>
-      </c>
-      <c r="D36" s="35">
-        <v>0</v>
-      </c>
-      <c r="E36" s="35">
-        <v>0</v>
-      </c>
-      <c r="F36" s="35">
-        <v>0</v>
-      </c>
-      <c r="G36" s="35">
-        <v>0</v>
-      </c>
-      <c r="H36" s="35">
-        <v>0</v>
-      </c>
-      <c r="I36" s="35">
-        <v>0</v>
-      </c>
-      <c r="J36" s="35">
-        <v>0</v>
-      </c>
-      <c r="K36" s="35">
-        <v>0</v>
-      </c>
-      <c r="L36" s="37">
+      <c r="A36" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="49">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="57">
-        <v>0</v>
-      </c>
-      <c r="C37" s="35">
-        <v>0</v>
-      </c>
-      <c r="D37" s="35">
-        <v>0</v>
-      </c>
-      <c r="E37" s="35">
-        <v>0</v>
-      </c>
-      <c r="F37" s="35">
-        <v>0</v>
-      </c>
-      <c r="G37" s="35">
-        <v>0</v>
-      </c>
-      <c r="H37" s="35">
-        <v>0</v>
-      </c>
-      <c r="I37" s="35">
-        <v>0</v>
-      </c>
-      <c r="J37" s="35">
-        <v>0</v>
-      </c>
-      <c r="K37" s="35">
-        <v>0</v>
-      </c>
-      <c r="L37" s="37">
+      <c r="B37" s="49">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="57">
+      <c r="B38" s="49">
         <v>0.04</v>
       </c>
-      <c r="C38" s="35">
-        <v>0</v>
-      </c>
-      <c r="D38" s="35">
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
         <v>53.71</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="2">
         <v>95.35</v>
       </c>
-      <c r="F38" s="35">
-        <v>100</v>
-      </c>
-      <c r="G38" s="35">
+      <c r="F38" s="2">
+        <v>100</v>
+      </c>
+      <c r="G38" s="2">
         <v>95.62</v>
       </c>
-      <c r="H38" s="35">
-        <v>100</v>
-      </c>
-      <c r="I38" s="35">
+      <c r="H38" s="2">
+        <v>100</v>
+      </c>
+      <c r="I38" s="2">
         <v>97.3</v>
       </c>
-      <c r="J38" s="35">
-        <v>100</v>
-      </c>
-      <c r="K38" s="35">
+      <c r="J38" s="2">
+        <v>100</v>
+      </c>
+      <c r="K38" s="2">
         <v>98.18</v>
       </c>
-      <c r="L38" s="37">
+      <c r="L38" s="29">
         <v>97.63</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="57">
-        <v>0</v>
-      </c>
-      <c r="C39" s="35">
+      <c r="B39" s="49">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
         <v>0.08</v>
       </c>
-      <c r="D39" s="35">
-        <v>0</v>
-      </c>
-      <c r="E39" s="35">
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
         <v>0.01</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="2">
         <v>17.170000000000002</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="2">
         <v>43.69</v>
       </c>
-      <c r="H39" s="35">
+      <c r="H39" s="2">
         <v>63.18</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="2">
         <v>85.5</v>
       </c>
-      <c r="J39" s="35">
-        <v>100</v>
-      </c>
-      <c r="K39" s="35">
+      <c r="J39" s="2">
+        <v>100</v>
+      </c>
+      <c r="K39" s="2">
         <v>98.65</v>
       </c>
-      <c r="L39" s="37">
+      <c r="L39" s="29">
         <v>96.47</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="57">
-        <v>0</v>
-      </c>
-      <c r="C40" s="35">
-        <v>0</v>
-      </c>
-      <c r="D40" s="35">
-        <v>0</v>
-      </c>
-      <c r="E40" s="35">
-        <v>0</v>
-      </c>
-      <c r="F40" s="35">
+      <c r="B40" s="49">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
         <v>0.4</v>
       </c>
-      <c r="G40" s="35">
-        <v>0</v>
-      </c>
-      <c r="H40" s="35">
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
         <v>0.8</v>
       </c>
-      <c r="I40" s="35">
-        <v>0</v>
-      </c>
-      <c r="J40" s="35">
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
         <v>2.17</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K40" s="2">
         <v>33.69</v>
       </c>
-      <c r="L40" s="37">
+      <c r="L40" s="29">
         <v>64.87</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="57">
-        <v>100</v>
-      </c>
-      <c r="C41" s="35">
-        <v>100</v>
-      </c>
-      <c r="D41" s="35">
-        <v>100</v>
-      </c>
-      <c r="E41" s="35">
-        <v>100</v>
-      </c>
-      <c r="F41" s="35">
-        <v>100</v>
-      </c>
-      <c r="G41" s="35">
-        <v>100</v>
-      </c>
-      <c r="H41" s="35">
-        <v>100</v>
-      </c>
-      <c r="I41" s="35">
+      <c r="B41" s="49">
+        <v>100</v>
+      </c>
+      <c r="C41" s="2">
+        <v>100</v>
+      </c>
+      <c r="D41" s="2">
+        <v>100</v>
+      </c>
+      <c r="E41" s="2">
+        <v>100</v>
+      </c>
+      <c r="F41" s="2">
+        <v>100</v>
+      </c>
+      <c r="G41" s="2">
+        <v>100</v>
+      </c>
+      <c r="H41" s="2">
+        <v>100</v>
+      </c>
+      <c r="I41" s="2">
         <v>97.3</v>
       </c>
-      <c r="J41" s="35">
-        <v>100</v>
-      </c>
-      <c r="K41" s="35">
+      <c r="J41" s="2">
+        <v>100</v>
+      </c>
+      <c r="K41" s="2">
         <v>95.49</v>
       </c>
-      <c r="L41" s="37">
+      <c r="L41" s="29">
         <v>48.31</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="57">
+      <c r="B42" s="49">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="2">
         <v>0.43</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="2">
         <v>0.7</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="2">
         <v>77.09</v>
       </c>
-      <c r="F42" s="35">
-        <v>100</v>
-      </c>
-      <c r="G42" s="35">
+      <c r="F42" s="2">
+        <v>100</v>
+      </c>
+      <c r="G42" s="2">
         <v>46.35</v>
       </c>
-      <c r="H42" s="35">
-        <v>100</v>
-      </c>
-      <c r="I42" s="35">
+      <c r="H42" s="2">
+        <v>100</v>
+      </c>
+      <c r="I42" s="2">
         <v>69.55</v>
       </c>
-      <c r="J42" s="35">
-        <v>100</v>
-      </c>
-      <c r="K42" s="35">
+      <c r="J42" s="2">
+        <v>100</v>
+      </c>
+      <c r="K42" s="2">
         <v>98.7</v>
       </c>
-      <c r="L42" s="37">
+      <c r="L42" s="29">
         <v>30.46</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="57">
+      <c r="B43" s="49">
         <v>0.16</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="2">
         <v>0.04</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="2">
         <v>0.01</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="2">
         <v>0.02</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="2">
         <v>0.02</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="2">
         <v>0.04</v>
       </c>
-      <c r="H43" s="35">
+      <c r="H43" s="2">
         <v>0.02</v>
       </c>
-      <c r="I43" s="35">
+      <c r="I43" s="2">
         <v>0.03</v>
       </c>
-      <c r="J43" s="35">
+      <c r="J43" s="2">
         <v>94.34</v>
       </c>
-      <c r="K43" s="35">
+      <c r="K43" s="2">
         <v>70.45</v>
       </c>
-      <c r="L43" s="37">
+      <c r="L43" s="29">
         <v>59.66</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="57">
-        <v>0</v>
-      </c>
-      <c r="C44" s="35">
+      <c r="B44" s="49">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
         <v>0.01</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="2">
         <v>0.01</v>
       </c>
-      <c r="E44" s="35">
-        <v>0</v>
-      </c>
-      <c r="F44" s="35">
-        <v>0</v>
-      </c>
-      <c r="G44" s="35">
-        <v>0</v>
-      </c>
-      <c r="H44" s="35">
-        <v>0</v>
-      </c>
-      <c r="I44" s="35">
-        <v>0</v>
-      </c>
-      <c r="J44" s="35">
-        <v>0</v>
-      </c>
-      <c r="K44" s="35">
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
         <v>50.42</v>
       </c>
-      <c r="L44" s="37">
+      <c r="L44" s="29">
         <v>80.62</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="57">
-        <v>0</v>
-      </c>
-      <c r="C45" s="35">
-        <v>0</v>
-      </c>
-      <c r="D45" s="35">
-        <v>0</v>
-      </c>
-      <c r="E45" s="35">
-        <v>0</v>
-      </c>
-      <c r="F45" s="35">
-        <v>0</v>
-      </c>
-      <c r="G45" s="35">
-        <v>0</v>
-      </c>
-      <c r="H45" s="35">
-        <v>0</v>
-      </c>
-      <c r="I45" s="35">
-        <v>0</v>
-      </c>
-      <c r="J45" s="35">
-        <v>0</v>
-      </c>
-      <c r="K45" s="35">
-        <v>0</v>
-      </c>
-      <c r="L45" s="37">
+      <c r="B45" s="49">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="57">
-        <v>0</v>
-      </c>
-      <c r="C46" s="35">
-        <v>0</v>
-      </c>
-      <c r="D46" s="35">
-        <v>0</v>
-      </c>
-      <c r="E46" s="35">
-        <v>0</v>
-      </c>
-      <c r="F46" s="35">
-        <v>0</v>
-      </c>
-      <c r="G46" s="35">
-        <v>0</v>
-      </c>
-      <c r="H46" s="35">
-        <v>0</v>
-      </c>
-      <c r="I46" s="35">
-        <v>0</v>
-      </c>
-      <c r="J46" s="35">
-        <v>0</v>
-      </c>
-      <c r="K46" s="35">
-        <v>0</v>
-      </c>
-      <c r="L46" s="37">
+      <c r="B46" s="49">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="57">
+      <c r="B47" s="49">
         <v>0.2</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="2">
         <v>0.13</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="2">
         <v>0.86</v>
       </c>
-      <c r="F47" s="35">
+      <c r="F47" s="2">
         <v>0.22</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="2">
         <v>0.21</v>
       </c>
-      <c r="H47" s="35">
-        <v>0</v>
-      </c>
-      <c r="I47" s="35">
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
         <v>0.09</v>
       </c>
-      <c r="J47" s="35">
-        <v>100</v>
-      </c>
-      <c r="K47" s="35">
+      <c r="J47" s="2">
+        <v>100</v>
+      </c>
+      <c r="K47" s="2">
         <v>12.31</v>
       </c>
-      <c r="L47" s="37">
+      <c r="L47" s="29">
         <v>28.17</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="57">
+      <c r="B48" s="49">
         <v>59.54</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="2">
         <v>12.07</v>
       </c>
-      <c r="D48" s="35">
-        <v>100</v>
-      </c>
-      <c r="E48" s="35">
+      <c r="D48" s="2">
+        <v>100</v>
+      </c>
+      <c r="E48" s="2">
         <v>76.83</v>
       </c>
-      <c r="F48" s="35">
-        <v>100</v>
-      </c>
-      <c r="G48" s="35">
+      <c r="F48" s="2">
+        <v>100</v>
+      </c>
+      <c r="G48" s="2">
         <v>87.12</v>
       </c>
-      <c r="H48" s="35">
-        <v>100</v>
-      </c>
-      <c r="I48" s="35">
+      <c r="H48" s="2">
+        <v>100</v>
+      </c>
+      <c r="I48" s="2">
         <v>13.48</v>
       </c>
-      <c r="J48" s="35">
-        <v>100</v>
-      </c>
-      <c r="K48" s="35">
+      <c r="J48" s="2">
+        <v>100</v>
+      </c>
+      <c r="K48" s="2">
         <v>43.1</v>
       </c>
-      <c r="L48" s="37">
+      <c r="L48" s="29">
         <v>45.81</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="57">
-        <v>0</v>
-      </c>
-      <c r="C49" s="35">
-        <v>0</v>
-      </c>
-      <c r="D49" s="35">
-        <v>0</v>
-      </c>
-      <c r="E49" s="35">
+      <c r="B49" s="49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
         <v>72.38</v>
       </c>
-      <c r="F49" s="35">
+      <c r="F49" s="2">
         <v>99.99</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="2">
         <v>90.58</v>
       </c>
-      <c r="H49" s="35">
-        <v>100</v>
-      </c>
-      <c r="I49" s="35">
+      <c r="H49" s="2">
+        <v>100</v>
+      </c>
+      <c r="I49" s="2">
         <v>91.84</v>
       </c>
-      <c r="J49" s="35">
-        <v>100</v>
-      </c>
-      <c r="K49" s="35">
+      <c r="J49" s="2">
+        <v>100</v>
+      </c>
+      <c r="K49" s="2">
         <v>95.22</v>
       </c>
-      <c r="L49" s="37">
+      <c r="L49" s="29">
         <v>91.35</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="57">
-        <v>0</v>
-      </c>
-      <c r="C50" s="35">
-        <v>0</v>
-      </c>
-      <c r="D50" s="35">
-        <v>0</v>
-      </c>
-      <c r="E50" s="35">
-        <v>0</v>
-      </c>
-      <c r="F50" s="35">
-        <v>0</v>
-      </c>
-      <c r="G50" s="35">
+      <c r="B50" s="49">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
         <v>0.01</v>
       </c>
-      <c r="H50" s="35">
-        <v>0</v>
-      </c>
-      <c r="I50" s="35">
-        <v>0</v>
-      </c>
-      <c r="J50" s="35">
-        <v>0</v>
-      </c>
-      <c r="K50" s="35">
-        <v>0</v>
-      </c>
-      <c r="L50" s="37">
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="57">
+      <c r="B51" s="49">
         <v>0.01</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="2">
         <v>0.08</v>
       </c>
-      <c r="D51" s="35">
-        <v>0</v>
-      </c>
-      <c r="E51" s="35">
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F51" s="35">
-        <v>100</v>
-      </c>
-      <c r="G51" s="35">
+      <c r="F51" s="2">
+        <v>100</v>
+      </c>
+      <c r="G51" s="2">
         <v>87.49</v>
       </c>
-      <c r="H51" s="35">
-        <v>100</v>
-      </c>
-      <c r="I51" s="35">
+      <c r="H51" s="2">
+        <v>100</v>
+      </c>
+      <c r="I51" s="2">
         <v>94.83</v>
       </c>
-      <c r="J51" s="35">
-        <v>100</v>
-      </c>
-      <c r="K51" s="35">
+      <c r="J51" s="2">
+        <v>100</v>
+      </c>
+      <c r="K51" s="2">
         <v>83.83</v>
       </c>
-      <c r="L51" s="37">
+      <c r="L51" s="29">
         <v>9.23</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="57">
+      <c r="B52" s="49">
         <v>0.02</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="2">
         <v>0.01</v>
       </c>
-      <c r="D52" s="35">
-        <v>0</v>
-      </c>
-      <c r="E52" s="35">
-        <v>0</v>
-      </c>
-      <c r="F52" s="35">
-        <v>0</v>
-      </c>
-      <c r="G52" s="35">
-        <v>0</v>
-      </c>
-      <c r="H52" s="35">
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
         <v>0.01</v>
       </c>
-      <c r="I52" s="35">
+      <c r="I52" s="2">
         <v>0.01</v>
       </c>
-      <c r="J52" s="35">
-        <v>0</v>
-      </c>
-      <c r="K52" s="35">
-        <v>0</v>
-      </c>
-      <c r="L52" s="37">
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="57">
+      <c r="B53" s="49">
         <v>15.74</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="2">
         <v>70.92</v>
       </c>
-      <c r="D53" s="35">
-        <v>100</v>
-      </c>
-      <c r="E53" s="35">
+      <c r="D53" s="2">
+        <v>100</v>
+      </c>
+      <c r="E53" s="2">
         <v>95.53</v>
       </c>
-      <c r="F53" s="35">
-        <v>100</v>
-      </c>
-      <c r="G53" s="35">
+      <c r="F53" s="2">
+        <v>100</v>
+      </c>
+      <c r="G53" s="2">
         <v>98.97</v>
       </c>
-      <c r="H53" s="35">
-        <v>100</v>
-      </c>
-      <c r="I53" s="35">
+      <c r="H53" s="2">
+        <v>100</v>
+      </c>
+      <c r="I53" s="2">
         <v>96.41</v>
       </c>
-      <c r="J53" s="35">
-        <v>100</v>
-      </c>
-      <c r="K53" s="35">
+      <c r="J53" s="2">
+        <v>100</v>
+      </c>
+      <c r="K53" s="2">
         <v>95.75</v>
       </c>
-      <c r="L53" s="37">
+      <c r="L53" s="29">
         <v>99.26</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="58">
-        <v>0</v>
-      </c>
-      <c r="C54" s="39">
-        <v>0</v>
-      </c>
-      <c r="D54" s="39">
-        <v>0</v>
-      </c>
-      <c r="E54" s="39">
-        <v>0</v>
-      </c>
-      <c r="F54" s="39">
-        <v>0</v>
-      </c>
-      <c r="G54" s="39">
-        <v>0</v>
-      </c>
-      <c r="H54" s="39">
-        <v>0</v>
-      </c>
-      <c r="I54" s="39">
-        <v>0</v>
-      </c>
-      <c r="J54" s="39">
-        <v>0</v>
-      </c>
-      <c r="K54" s="39">
-        <v>0</v>
-      </c>
-      <c r="L54" s="41">
+      <c r="B54" s="50">
+        <v>0</v>
+      </c>
+      <c r="C54" s="31">
+        <v>0</v>
+      </c>
+      <c r="D54" s="31">
+        <v>0</v>
+      </c>
+      <c r="E54" s="31">
+        <v>0</v>
+      </c>
+      <c r="F54" s="31">
+        <v>0</v>
+      </c>
+      <c r="G54" s="31">
+        <v>0</v>
+      </c>
+      <c r="H54" s="31">
+        <v>0</v>
+      </c>
+      <c r="I54" s="31">
+        <v>0</v>
+      </c>
+      <c r="J54" s="31">
+        <v>0</v>
+      </c>
+      <c r="K54" s="31">
+        <v>0</v>
+      </c>
+      <c r="L54" s="33">
         <v>0</v>
       </c>
     </row>
